--- a/7_Data_Extraction/Data_Extraction.xlsx
+++ b/7_Data_Extraction/Data_Extraction.xlsx
@@ -8,24 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8527DDF-0D29-B244-8953-64B1C1F2B1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DA86D1-D552-AF42-BCF0-2C8164AC1BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1820" windowWidth="36720" windowHeight="19420" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15580" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$AP$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$AP$3:$AP$15</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$AQ$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Foglio1!$AQ$3:$AQ$15</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Foglio1!$AP$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Foglio1!$AP$3:$AP$15</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Foglio1!$AQ$2</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Foglio1!$AQ$3:$AQ$15</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="1479">
   <si>
     <t>ID</t>
   </si>
@@ -4734,6 +4724,18 @@
   </si>
   <si>
     <t>Transfer Learning-based</t>
+  </si>
+  <si>
+    <t>AI-based</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>#multi obj</t>
+  </si>
+  <si>
+    <t>#single obj</t>
   </si>
 </sst>
 </file>
@@ -5866,9 +5868,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6632,10 +6632,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7729,7 +7726,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7755,727 +7752,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$AP$3:$AP$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AQ$3:$AQ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E47-7444-B4A8-005F1B19B44C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AR$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Minimization</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
+          <c:dLbls>
+            <c:spPr>
               <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$AP$3:$AP$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AR$3:$AR$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E47-7444-B4A8-005F1B19B44C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AS$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$AP$3:$AP$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AS$3:$AS$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4E47-7444-B4A8-005F1B19B44C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AT$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prioritization</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$AP$3:$AP$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AT$3:$AT$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4E47-7444-B4A8-005F1B19B44C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1411619391"/>
-        <c:axId val="1411612671"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1411619391"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1411612671"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1411612671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1411619391"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AQ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Totale_PS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Foglio1!$AP$3:$AP$15</c:f>
@@ -8767,17 +8100,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BG$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coverage-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8885,6 +8207,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DF5D-E24B-B37D-192F0465D400}"/>
             </c:ext>
@@ -8893,17 +8230,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BH$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Requirements-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -9011,25 +8337,113 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DF5D-E24B-B37D-192F0465D400}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="10"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$BI$3:$BI$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-617F-8D4D-B468-110A7D44495D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BJ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Distribution-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:order val="3"/>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFF00"/>
@@ -9137,6 +8551,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DF5D-E24B-B37D-192F0465D400}"/>
             </c:ext>
@@ -9144,18 +8573,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BK$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clustering-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:order val="4"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -9263,6 +8681,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-DF5D-E24B-B37D-192F0465D400}"/>
             </c:ext>
@@ -9270,18 +8703,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BL$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>History-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:order val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="bg2">
@@ -9391,6 +8813,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-DF5D-E24B-B37D-192F0465D400}"/>
             </c:ext>
@@ -9398,18 +8835,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BM$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Model-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:order val="6"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -9519,6 +8945,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-DF5D-E24B-B37D-192F0465D400}"/>
             </c:ext>
@@ -9526,18 +8967,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BN$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cost-aware</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:order val="7"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -9647,6 +9077,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-DF5D-E24B-B37D-192F0465D400}"/>
             </c:ext>
@@ -9654,18 +9099,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BO$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Similarity-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:order val="8"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="tx2">
@@ -9776,6 +9210,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-DF5D-E24B-B37D-192F0465D400}"/>
             </c:ext>
@@ -9783,18 +9232,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BP$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Input-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:order val="9"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3">
@@ -9905,31 +9343,32 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-DF5D-E24B-B37D-192F0465D400}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="12"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BS$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ML-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:idx val="2"/>
+          <c:order val="10"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -9937,65 +9376,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Foglio1!$BF$3:$BF$15</c:f>
+              <c:f>Foglio1!$CA$3:$CA$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2013</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$BS$3:$BS$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -10022,7 +9413,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -10034,280 +9425,29 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-DF5D-E24B-B37D-192F0465D400}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BV$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Transfer Learning-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$BF$3:$BF$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$BV$3:$BV$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-DF5D-E24B-B37D-192F0465D400}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BX$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NLP-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$BF$3:$BF$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$BX$3:$BX$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-DF5D-E24B-B37D-192F0465D400}"/>
+              <c16:uniqueId val="{00000002-617F-8D4D-B468-110A7D44495D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="19"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$BZ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:order val="11"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -10417,8 +9557,68 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-DF5D-E24B-B37D-192F0465D400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-617F-8D4D-B468-110A7D44495D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11124,7 +10324,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11244,6 +10444,765 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Search-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CL$3:$CL$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D55-F84B-9F0B-59C0B3C9B761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$CM$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CM$3:$CM$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D55-F84B-9F0B-59C0B3C9B761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$CN$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Machine Learning-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CN$3:$CN$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9D55-F84B-9F0B-59C0B3C9B761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$CO$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rule-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CO$3:$CO$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9D55-F84B-9F0B-59C0B3C9B761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$CP$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Similarity-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CP$3:$CP$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9D55-F84B-9F0B-59C0B3C9B761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$CQ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$CQ$3:$CQ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9D55-F84B-9F0B-59C0B3C9B761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$CR$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dependency-based</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11308,766 +11267,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CL$3:$CL$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D55-F84B-9F0B-59C0B3C9B761}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CM$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CM$3:$CM$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9D55-F84B-9F0B-59C0B3C9B761}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CN$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Machine Learning-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CN$3:$CN$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9D55-F84B-9F0B-59C0B3C9B761}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CO$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rule-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CO$3:$CO$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9D55-F84B-9F0B-59C0B3C9B761}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CP$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Similarity-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CP$3:$CP$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9D55-F84B-9F0B-59C0B3C9B761}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CQ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Model-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CQ$3:$CQ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9D55-F84B-9F0B-59C0B3C9B761}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CR$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dependency-based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$3:$CJ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Foglio1!$CR$3:$CR$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -12137,7 +11336,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -12264,9 +11464,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -12392,8 +11590,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -12520,9 +11718,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="92D050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -12648,10 +11844,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -13372,7 +12565,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -14006,9 +13199,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -14262,8 +13453,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -14518,10 +13710,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -14828,1876 +14017,6 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CK$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>metaheuristic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CK$37:$CK$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CL$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>search</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CL$37:$CL$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CM$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>heuristic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CM$37:$CM$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CN$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ml</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CN$37:$CN$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CO$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rule</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CO$37:$CO$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CP$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>similarity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CP$37:$CP$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CQ$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>model</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CQ$37:$CQ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CR$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dependency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CR$37:$CR$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CS$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quantum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CS$37:$CS$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CT$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>genetic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CT$37:$CT$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CU$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>graph</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CU$37:$CU$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CV$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CV$37:$CV$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$CW$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dynamic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$CJ$37:$CJ$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$CW$37:$CW$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-6EF7-674D-B67B-5F729127C199}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="2121974207"/>
-        <c:axId val="2121981823"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2121974207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2121981823"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2121981823"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2121974207"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -17107,7 +14426,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -17418,7 +14737,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -17807,6 +15126,799 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AR$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="548640" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$AP$3:$AP$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AR$3:$AR$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E47-7444-B4A8-005F1B19B44C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AS$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="548640" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$AP$3:$AP$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AS$3:$AS$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E47-7444-B4A8-005F1B19B44C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AT$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prioritization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="548640" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$AP$3:$AP$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AT$3:$AT$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E47-7444-B4A8-005F1B19B44C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1411619391"/>
+        <c:axId val="1411612671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1411619391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411612671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1411612671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411619391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17848,46 +15960,6 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18769,511 +16841,6 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21843,7 +19410,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -21900,7 +19467,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -21951,6 +19518,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -21961,12 +19535,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -22004,7 +19585,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -22113,14 +19694,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -22238,17 +19814,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -23402,7 +20967,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -23459,7 +21024,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -23510,13 +21075,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -23527,19 +21085,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -23577,7 +21128,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -23960,16 +21511,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>186266</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>168564</xdr:rowOff>
+      <xdr:rowOff>1269231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>733521</xdr:colOff>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>716588</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2607733</xdr:rowOff>
+      <xdr:rowOff>3708400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23996,16 +21547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>292484</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>639233</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>596568</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1301064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>634999</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>38484</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>116266</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1129612</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24104,42 +21655,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>715818</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>1793778</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>346363</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>307878</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Grafico 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00FB324-3184-196E-ECA6-F8D23BA707BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>102</xdr:col>
       <xdr:colOff>451555</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -24168,7 +21683,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24204,7 +21719,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24240,7 +21755,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24276,7 +21791,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24312,7 +21827,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24640,8 +22155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA3DE9A-9DC8-9B4C-920E-613E1AA78E62}">
   <dimension ref="A1:EN126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA14" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AX16" sqref="AX16"/>
+    <sheetView tabSelected="1" topLeftCell="BD13" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AS224" sqref="AS224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24786,7 +22301,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="2" spans="1:144" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:144" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>10048797</v>
       </c>
@@ -24961,6 +22476,18 @@
       <c r="BZ2" t="s">
         <v>1019</v>
       </c>
+      <c r="CA2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>1478</v>
+      </c>
       <c r="CJ2" t="s">
         <v>1380</v>
       </c>
@@ -25195,7 +22722,7 @@
         <v>2</v>
       </c>
       <c r="BI3" s="35" cm="1">
-        <f t="array" ref="BI3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF3)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
+        <f t="array" ref="BI3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF3)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
         <v>0</v>
       </c>
       <c r="BJ3" s="35" cm="1">
@@ -25265,6 +22792,19 @@
       <c r="BZ3" s="35" cm="1">
         <f t="array" ref="BZ3">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF3)*NOT(ISERROR(SEARCH("prioritization",LOWER(Z$2:Z$1000))))*(NOT(ISERROR(SEARCH("coverage",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("requirement",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("probabilistic",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("distribution",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("clustering",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("history",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("model",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("cost-aware",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("similarity",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("input",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("structure",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("change",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("ml",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("heuristic",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("search",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("transfer",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("risk",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("nlp",LOWER(AA$2:AA$1000)))))*(NOT(ISERROR(SEARCH("design",LOWER(AA$2:AA$1000))))))</f>
         <v>0</v>
+      </c>
+      <c r="CA3">
+        <f>SUM(BS3,BV3,BX3)</f>
+        <v>0</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF3">
+        <v>22</v>
+      </c>
+      <c r="CG3">
+        <v>14</v>
       </c>
       <c r="CJ3">
         <v>2013</v>
@@ -25497,8 +23037,8 @@
         <v>1</v>
       </c>
       <c r="BI4" s="35" cm="1">
-        <f t="array" ref="BI4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF4)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <f t="array" ref="BI4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF4)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
+        <v>1</v>
       </c>
       <c r="BJ4" s="35" cm="1">
         <f t="array" ref="BJ4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF4)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("distribution",LOWER(AA$2:AA$1000))))</f>
@@ -25568,6 +23108,19 @@
         <f t="array" ref="BZ4">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF4)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
         <v>2</v>
       </c>
+      <c r="CA4">
+        <f t="shared" ref="CA4:CA15" si="8">SUM(BS4,BV4,BX4)</f>
+        <v>1</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CF4">
+        <v>3</v>
+      </c>
+      <c r="CG4">
+        <v>10</v>
+      </c>
       <c r="CJ4">
         <v>2014</v>
       </c>
@@ -25674,7 +23227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:144" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:144" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>7515934</v>
       </c>
@@ -25807,8 +23360,8 @@
         <v>0</v>
       </c>
       <c r="BI5" s="35" cm="1">
-        <f t="array" ref="BI5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF5)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <f t="array" ref="BI5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF5)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
+        <v>1</v>
       </c>
       <c r="BJ5" s="35" cm="1">
         <f t="array" ref="BJ5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF5)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("distribution",LOWER(AA$2:AA$1000))))</f>
@@ -25878,6 +23431,19 @@
         <f t="array" ref="BZ5">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF5)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
         <v>0</v>
       </c>
+      <c r="CA5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CF5">
+        <v>4</v>
+      </c>
+      <c r="CG5">
+        <v>8</v>
+      </c>
       <c r="CJ5">
         <v>2015</v>
       </c>
@@ -25984,7 +23550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:144" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:144" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6888744</v>
       </c>
@@ -26115,7 +23681,7 @@
         <v>1</v>
       </c>
       <c r="BI6" s="35" cm="1">
-        <f t="array" ref="BI6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF6)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
+        <f t="array" ref="BI6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF6)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
         <v>0</v>
       </c>
       <c r="BJ6" s="35" cm="1">
@@ -26184,6 +23750,10 @@
       </c>
       <c r="BZ6" s="35" cm="1">
         <f t="array" ref="BZ6">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF6)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="CJ6">
@@ -26286,7 +23856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:144" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:144" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>7809434</v>
       </c>
@@ -26419,8 +23989,8 @@
         <v>0</v>
       </c>
       <c r="BI7" s="35" cm="1">
-        <f t="array" ref="BI7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <f t="array" ref="BI7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
+        <v>1</v>
       </c>
       <c r="BJ7" s="35" cm="1">
         <f t="array" ref="BJ7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("distribution",LOWER(AA$2:AA$1000))))</f>
@@ -26490,6 +24060,10 @@
         <f t="array" ref="BZ7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
         <v>0</v>
       </c>
+      <c r="CA7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="CJ7">
         <v>2017</v>
       </c>
@@ -26590,7 +24164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:144" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:144" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6571611</v>
       </c>
@@ -26713,7 +24287,7 @@
         <v>1</v>
       </c>
       <c r="BI8" s="35" cm="1">
-        <f t="array" ref="BI8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF8)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
+        <f t="array" ref="BI8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF8)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
         <v>0</v>
       </c>
       <c r="BJ8" s="35" cm="1">
@@ -26783,6 +24357,10 @@
       <c r="BZ8" s="35" cm="1">
         <f t="array" ref="BZ8">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF8)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
         <v>1</v>
+      </c>
+      <c r="CA8">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="CJ8">
         <v>2018</v>
@@ -27017,7 +24595,7 @@
         <v>2</v>
       </c>
       <c r="BI9" s="35" cm="1">
-        <f t="array" ref="BI9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF9)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
+        <f t="array" ref="BI9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF9)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
         <v>0</v>
       </c>
       <c r="BJ9" s="35" cm="1">
@@ -27087,6 +24665,10 @@
       <c r="BZ9" s="35" cm="1">
         <f t="array" ref="BZ9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF9)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
         <v>2</v>
+      </c>
+      <c r="CA9">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="CJ9">
         <v>2019</v>
@@ -27320,8 +24902,8 @@
         <v>0</v>
       </c>
       <c r="BI10" s="35" cm="1">
-        <f t="array" ref="BI10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF10)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <f t="array" ref="BI10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF10)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
+        <v>1</v>
       </c>
       <c r="BJ10" s="35" cm="1">
         <f t="array" ref="BJ10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF10)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("distribution",LOWER(AA$2:AA$1000))))</f>
@@ -27391,6 +24973,10 @@
         <f t="array" ref="BZ10">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF10)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
         <v>2</v>
       </c>
+      <c r="CA10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="CJ10">
         <v>2020</v>
       </c>
@@ -27479,7 +25065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:144" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:144" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8305939</v>
       </c>
@@ -27612,8 +25198,8 @@
         <v>0</v>
       </c>
       <c r="BI11" s="35" cm="1">
-        <f t="array" ref="BI11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF11)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <f t="array" ref="BI11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF11)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
+        <v>1</v>
       </c>
       <c r="BJ11" s="35" cm="1">
         <f t="array" ref="BJ11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF11)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("distribution",LOWER(AA$2:AA$1000))))</f>
@@ -27682,6 +25268,10 @@
       <c r="BZ11" s="35" cm="1">
         <f t="array" ref="BZ11">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF11)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
         <v>1</v>
+      </c>
+      <c r="CA11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="CJ11">
         <v>2021</v>
@@ -27904,8 +25494,8 @@
         <v>1</v>
       </c>
       <c r="BI12" s="35" cm="1">
-        <f t="array" ref="BI12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <f t="array" ref="BI12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
+        <v>1</v>
       </c>
       <c r="BJ12" s="35" cm="1">
         <f t="array" ref="BJ12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("distribution",LOWER(AA$2:AA$1000))))</f>
@@ -27975,6 +25565,10 @@
         <f t="array" ref="BZ12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
         <v>1</v>
       </c>
+      <c r="CA12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="CJ12">
         <v>2022</v>
       </c>
@@ -28063,7 +25657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:144" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:144" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>8452804</v>
       </c>
@@ -28192,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="BI13" s="35" cm="1">
-        <f t="array" ref="BI13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF13)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
+        <f t="array" ref="BI13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF13)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
         <v>0</v>
       </c>
       <c r="BJ13" s="35" cm="1">
@@ -28262,6 +25856,10 @@
       <c r="BZ13" s="35" cm="1">
         <f t="array" ref="BZ13">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF13)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
         <v>0</v>
+      </c>
+      <c r="CA13">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="CJ13">
         <v>2023</v>
@@ -28482,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="35" cm="1">
-        <f t="array" ref="BI14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF14)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
+        <f t="array" ref="BI14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF14)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
         <v>0</v>
       </c>
       <c r="BJ14" s="35" cm="1">
@@ -28551,6 +26149,10 @@
       </c>
       <c r="BZ14" s="35" cm="1">
         <f t="array" ref="BZ14">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF14)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="CJ14">
@@ -28768,7 +26370,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="35" cm="1">
-        <f t="array" ref="BI15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF15)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000))))</f>
+        <f t="array" ref="BI15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF15)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
         <v>0</v>
       </c>
       <c r="BJ15" s="35" cm="1">
@@ -28837,6 +26439,10 @@
       </c>
       <c r="BZ15" s="35" cm="1">
         <f t="array" ref="BZ15">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=BF15)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="CJ15">
@@ -28921,7 +26527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:144" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:144" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>8855691</v>
       </c>
@@ -35964,15 +33570,15 @@
         <v>1</v>
       </c>
       <c r="AL67">
-        <f t="shared" ref="AL67:AL126" si="8">IF(AND(Y67="PS",ISNUMBER(SEARCH("minimization",Z67))),1,0)</f>
+        <f t="shared" ref="AL67:AL126" si="9">IF(AND(Y67="PS",ISNUMBER(SEARCH("minimization",Z67))),1,0)</f>
         <v>0</v>
       </c>
       <c r="AM67">
-        <f t="shared" ref="AM67:AM126" si="9">IF(AND(Y67="PS",ISNUMBER(SEARCH("selection",Z67))),1,0)</f>
+        <f t="shared" ref="AM67:AM126" si="10">IF(AND(Y67="PS",ISNUMBER(SEARCH("selection",Z67))),1,0)</f>
         <v>1</v>
       </c>
       <c r="AN67">
-        <f t="shared" ref="AN67:AN126" si="10">IF(AND(Y67="PS",ISNUMBER(SEARCH("prioritization",Z67))),1,0)</f>
+        <f t="shared" ref="AN67:AN126" si="11">IF(AND(Y67="PS",ISNUMBER(SEARCH("prioritization",Z67))),1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -36046,19 +33652,19 @@
       </c>
       <c r="AJ68" s="25"/>
       <c r="AK68">
-        <f t="shared" ref="AK68:AK126" si="11">IF(Y68="PS",1,0)</f>
+        <f t="shared" ref="AK68:AK126" si="12">IF(Y68="PS",1,0)</f>
         <v>1</v>
       </c>
       <c r="AL68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -36148,19 +33754,19 @@
       <c r="AI69" s="26"/>
       <c r="AJ69" s="25"/>
       <c r="AK69">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN69">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL69">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM69">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN69">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -36230,19 +33836,19 @@
       </c>
       <c r="AJ70" s="25"/>
       <c r="AK70">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN70">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL70">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM70">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN70">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BF70" t="s">
@@ -36341,19 +33947,19 @@
       <c r="AI71" s="26"/>
       <c r="AJ71" s="25"/>
       <c r="AK71">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN71">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL71">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM71">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN71">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BF71" t="s">
@@ -36440,19 +34046,19 @@
       <c r="AI72" s="26"/>
       <c r="AJ72" s="25"/>
       <c r="AK72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN72">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL72">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM72">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN72">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BF72">
@@ -36553,19 +34159,19 @@
       <c r="AI73" s="26"/>
       <c r="AJ73" s="25"/>
       <c r="AK73">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN73">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL73">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM73">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN73">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BF73">
@@ -36664,19 +34270,19 @@
       <c r="AI74" s="26"/>
       <c r="AJ74" s="25"/>
       <c r="AK74">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN74">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL74">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM74">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN74">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BF74">
@@ -36779,19 +34385,19 @@
       <c r="AI75" s="26"/>
       <c r="AJ75" s="25"/>
       <c r="AK75">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN75">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL75">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM75">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN75">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BF75">
@@ -36892,19 +34498,19 @@
       <c r="AI76" s="26"/>
       <c r="AJ76" s="25"/>
       <c r="AK76">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN76">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM76">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN76">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BF76">
@@ -37005,19 +34611,19 @@
       <c r="AI77" s="26"/>
       <c r="AJ77" s="25"/>
       <c r="AK77">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN77">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL77">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM77">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN77">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BF77">
@@ -37118,19 +34724,19 @@
       <c r="AI78" s="26"/>
       <c r="AJ78" s="25"/>
       <c r="AK78">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN78">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL78">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM78">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN78">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BF78">
@@ -37219,19 +34825,19 @@
       </c>
       <c r="AJ79" s="25"/>
       <c r="AK79">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN79">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM79">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN79">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BF79">
@@ -37332,19 +34938,19 @@
       <c r="AI80" s="26"/>
       <c r="AJ80" s="25"/>
       <c r="AK80">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN80">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL80">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM80">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN80">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BF80">
@@ -37445,19 +35051,19 @@
       <c r="AI81" s="26"/>
       <c r="AJ81" s="25"/>
       <c r="AK81">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN81">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN81">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BF81">
@@ -37526,19 +35132,19 @@
       <c r="AI82" s="26"/>
       <c r="AJ82" s="25"/>
       <c r="AK82">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN82">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL82">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM82">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN82">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BF82">
@@ -37621,19 +35227,19 @@
       <c r="AI83" s="26"/>
       <c r="AJ83" s="25"/>
       <c r="AK83">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN83">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL83">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM83">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN83">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BF83">
@@ -37716,19 +35322,19 @@
       <c r="AI84" s="26"/>
       <c r="AJ84" s="25"/>
       <c r="AK84">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN84">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL84">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM84">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN84">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BF84">
@@ -37813,19 +35419,19 @@
       </c>
       <c r="AJ85" s="25"/>
       <c r="AK85">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN85">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL85">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM85">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN85">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -37883,19 +35489,19 @@
       <c r="AI86" s="26"/>
       <c r="AJ86" s="25"/>
       <c r="AK86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN86">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL86">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN86">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -37953,19 +35559,19 @@
       <c r="AI87" s="26"/>
       <c r="AJ87" s="25"/>
       <c r="AK87">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN87">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL87">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM87">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN87">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -38023,19 +35629,19 @@
       <c r="AI88" s="26"/>
       <c r="AJ88" s="25"/>
       <c r="AK88">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN88">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM88">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN88">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -38109,19 +35715,19 @@
       </c>
       <c r="AJ89" s="25"/>
       <c r="AK89">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN89">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM89">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN89">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -38193,19 +35799,19 @@
       <c r="AI90" s="26"/>
       <c r="AJ90" s="25"/>
       <c r="AK90">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN90">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL90">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM90">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN90">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -38277,19 +35883,19 @@
       <c r="AI91" s="26"/>
       <c r="AJ91" s="25"/>
       <c r="AK91">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN91">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL91">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM91">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN91">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -38361,19 +35967,19 @@
       <c r="AI92" s="26"/>
       <c r="AJ92" s="25"/>
       <c r="AK92">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN92">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL92">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM92">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN92">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -38431,19 +36037,19 @@
       <c r="AI93" s="26"/>
       <c r="AJ93" s="25"/>
       <c r="AK93">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN93">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL93">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM93">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN93">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -38515,19 +36121,19 @@
       <c r="AI94" s="26"/>
       <c r="AJ94" s="25"/>
       <c r="AK94">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN94">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL94">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM94">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN94">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -38585,19 +36191,19 @@
       <c r="AI95" s="26"/>
       <c r="AJ95" s="25"/>
       <c r="AK95">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN95">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL95">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM95">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN95">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -38672,19 +36278,19 @@
         <v>1081</v>
       </c>
       <c r="AK96">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN96">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL96">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM96">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN96">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -38757,19 +36363,19 @@
       </c>
       <c r="AI97" s="2"/>
       <c r="AK97">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN97">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL97">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM97">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN97">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -38828,19 +36434,19 @@
       <c r="AH98" s="30"/>
       <c r="AI98" s="2"/>
       <c r="AK98">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN98">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL98">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM98">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN98">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -38911,19 +36517,19 @@
       </c>
       <c r="AI99" s="2"/>
       <c r="AK99">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL99">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AM99">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN99">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL99">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AM99">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN99">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -38998,19 +36604,19 @@
         <v>1116</v>
       </c>
       <c r="AK100">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN100">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL100">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN100">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -39081,19 +36687,19 @@
       </c>
       <c r="AI101" s="2"/>
       <c r="AK101">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN101">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL101">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM101">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN101">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -39166,19 +36772,19 @@
         <v>1133</v>
       </c>
       <c r="AK102">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL102">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN102">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL102">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM102">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN102">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -39251,19 +36857,19 @@
         <v>1142</v>
       </c>
       <c r="AK103">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN103">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL103">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM103">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN103">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -39336,19 +36942,19 @@
         <v>1142</v>
       </c>
       <c r="AK104">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL104">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN104">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL104">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM104">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN104">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -39419,19 +37025,19 @@
       </c>
       <c r="AI105" s="2"/>
       <c r="AK105">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN105">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM105">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN105">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -39502,19 +37108,19 @@
       </c>
       <c r="AI106" s="2"/>
       <c r="AK106">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN106">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM106">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN106">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -39585,19 +37191,19 @@
       </c>
       <c r="AI107" s="2"/>
       <c r="AK107">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL107">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN107">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL107">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM107">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN107">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -39670,19 +37276,19 @@
         <v>1178</v>
       </c>
       <c r="AK108">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN108">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL108">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM108">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN108">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39757,19 +37363,19 @@
         <v>1188</v>
       </c>
       <c r="AK109">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL109">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN109">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL109">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM109">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN109">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39838,19 +37444,19 @@
       </c>
       <c r="AI110" s="2"/>
       <c r="AK110">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL110">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN110">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL110">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM110">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN110">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39921,19 +37527,19 @@
       </c>
       <c r="AI111" s="2"/>
       <c r="AK111">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL111">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN111">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL111">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM111">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN111">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -40008,19 +37614,19 @@
         <v>1213</v>
       </c>
       <c r="AK112">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL112">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN112">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL112">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM112">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN112">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40089,19 +37695,19 @@
       </c>
       <c r="AI113" s="2"/>
       <c r="AK113">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL113">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN113">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL113">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM113">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN113">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40172,19 +37778,19 @@
       </c>
       <c r="AI114" s="2"/>
       <c r="AK114">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN114">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL114">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM114">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN114">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40257,19 +37863,19 @@
         <v>1240</v>
       </c>
       <c r="AK115">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL115">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN115">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL115">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM115">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN115">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40340,19 +37946,19 @@
         <v>1248</v>
       </c>
       <c r="AK116">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL116">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN116">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL116">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM116">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN116">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40425,19 +38031,19 @@
         <v>1258</v>
       </c>
       <c r="AK117">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL117">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN117">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL117">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM117">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN117">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40510,19 +38116,19 @@
         <v>1266</v>
       </c>
       <c r="AK118">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN118">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL118">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM118">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN118">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40597,19 +38203,19 @@
         <v>1275</v>
       </c>
       <c r="AK119">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL119">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN119">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM119">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN119">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40682,19 +38288,19 @@
         <v>1285</v>
       </c>
       <c r="AK120">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL120">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN120">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL120">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM120">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN120">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40767,19 +38373,19 @@
         <v>1295</v>
       </c>
       <c r="AK121">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN121">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL121">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM121">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN121">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40852,19 +38458,19 @@
         <v>1303</v>
       </c>
       <c r="AK122">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN122">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL122">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM122">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN122">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -40935,19 +38541,19 @@
       </c>
       <c r="AI123" s="2"/>
       <c r="AK123">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN123">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM123">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN123">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41020,19 +38626,19 @@
       </c>
       <c r="AI124" s="2"/>
       <c r="AK124">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL124">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN124">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL124">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM124">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN124">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -41103,19 +38709,19 @@
         <v>1323</v>
       </c>
       <c r="AK125">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL125">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN125">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL125">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM125">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN125">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -41188,19 +38794,19 @@
         <v>1330</v>
       </c>
       <c r="AK126">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL126">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN126">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL126">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM126">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN126">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>

--- a/7_Data_Extraction/Data_Extraction.xlsx
+++ b/7_Data_Extraction/Data_Extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC48CBCB-2D8E-4C4F-BB1A-8763FF9FA41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3033116-3981-4C4F-9B7F-85D1FBABDDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1440" windowWidth="37620" windowHeight="19180" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="28800" windowHeight="15580" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1459">
   <si>
     <t>ID</t>
   </si>
@@ -3316,9 +3316,6 @@
   </si>
   <si>
     <t>in software maintenance, after modifying the software a system needs regression testing. Execution of regression testing confirms that any modified code has no adverse effect as well as does not introduce new faults in the existing functionality of the software. When working with object-oriented programming code-based testing is generally expensive. In this study, we proposed a technique for regression testing using unified modeling language (UML) diagrams and code-based analysis for object-oriented software. In this research work, the design and code based technique with an evolutionary approach are presented to select the best possible test cases from the test suite. We used the dependency graph for intermediate representation for the objectoriented program to identify the change. The selection of test cases is done at the design level using the UML model. The models are compared to identify the change between these two models. The proposed approached maximizes the value of APFD.</t>
-  </si>
-  <si>
-    <t>Selection and Prioritization</t>
   </si>
   <si>
     <t>Two-objectives</t>
@@ -4504,9 +4501,6 @@
     <t xml:space="preserve"> Cost-aware </t>
   </si>
   <si>
-    <t>Coverage-based;</t>
-  </si>
-  <si>
     <t>Probability-based;</t>
   </si>
   <si>
@@ -4526,9 +4520,6 @@
   </si>
   <si>
     <t>Design-based;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other</t>
   </si>
   <si>
     <t>graph-based</t>
@@ -4653,6 +4644,9 @@
   </si>
   <si>
     <t>Paper</t>
+  </si>
+  <si>
+    <t>cost-aware, history-based</t>
   </si>
 </sst>
 </file>
@@ -5011,12 +5005,12 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
@@ -5151,13 +5145,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -5399,7 +5393,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6171,7 +6165,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -6802,7 +6796,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -6937,7 +6931,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -7436,25 +7430,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -8925,7 +8919,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -9317,7 +9311,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -9332,7 +9326,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
@@ -9596,7 +9590,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
@@ -10067,7 +10061,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -13057,7 +13051,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -16031,13 +16025,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
@@ -16225,7 +16219,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7</c:v>
@@ -22711,8 +22705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA3DE9A-9DC8-9B4C-920E-613E1AA78E62}">
   <dimension ref="A1:HM126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CO1" sqref="CO1"/>
+    <sheetView tabSelected="1" topLeftCell="Z99" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z99" sqref="Z99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22827,150 +22821,150 @@
         <v>33</v>
       </c>
       <c r="AK1" s="31" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AL1" s="31" t="s">
         <v>1260</v>
-      </c>
-      <c r="AL1" s="31" t="s">
-        <v>1261</v>
       </c>
       <c r="AM1" s="31" t="s">
         <v>1018</v>
       </c>
       <c r="AN1" s="31" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AW1" s="32"/>
       <c r="AX1" s="32"/>
       <c r="AY1" s="32" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="AZ1" t="s">
         <v>91</v>
       </c>
       <c r="BA1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="BB1" s="32" t="s">
+        <v>1393</v>
+      </c>
+      <c r="BC1" s="32" t="s">
+        <v>1395</v>
+      </c>
+      <c r="BD1" s="32" t="s">
+        <v>1428</v>
+      </c>
+      <c r="BE1" s="32" t="s">
         <v>1394</v>
       </c>
-      <c r="BC1" s="32" t="s">
-        <v>1396</v>
-      </c>
-      <c r="BD1" s="32" t="s">
-        <v>1431</v>
-      </c>
-      <c r="BE1" s="32" t="s">
-        <v>1395</v>
-      </c>
       <c r="BH1" s="32" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="BI1" s="32" t="s">
         <v>409</v>
       </c>
       <c r="BJ1" s="32" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="BK1" s="32" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="BL1" s="32" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="BM1" s="32" t="s">
         <v>207</v>
       </c>
       <c r="BN1" s="32" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="BP1" t="s">
         <v>66</v>
       </c>
       <c r="BQ1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="BR1" t="s">
         <v>1363</v>
       </c>
-      <c r="BR1" t="s">
-        <v>1364</v>
-      </c>
       <c r="BS1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="BT1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="BU1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="BV1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="BX1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="BY1" t="s">
         <v>66</v>
       </c>
       <c r="BZ1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="CA1" t="s">
         <v>1363</v>
       </c>
-      <c r="CA1" t="s">
-        <v>1364</v>
-      </c>
       <c r="CB1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="CC1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="CG1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="CH1" t="s">
         <v>66</v>
       </c>
       <c r="CI1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="CJ1" t="s">
         <v>1363</v>
       </c>
-      <c r="CJ1" t="s">
-        <v>1364</v>
-      </c>
       <c r="CK1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="CL1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="CO1" s="42" t="s">
-        <v>1460</v>
-      </c>
-      <c r="CP1" s="40" t="s">
-        <v>1448</v>
+        <v>1439</v>
+      </c>
+      <c r="CO1" s="41" t="s">
+        <v>1457</v>
+      </c>
+      <c r="CP1" s="39" t="s">
+        <v>1445</v>
       </c>
       <c r="CZ1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="DF1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="DH1" t="s">
         <v>1335</v>
       </c>
-      <c r="DH1" t="s">
-        <v>1336</v>
-      </c>
       <c r="EM1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="ES1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="FQ1" s="32" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="FR1" s="32"/>
       <c r="FS1" s="32"/>
       <c r="FT1" s="32"/>
       <c r="FV1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="GZ1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="2" spans="1:221" ht="409.6">
@@ -23030,7 +23024,7 @@
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
@@ -23059,19 +23053,19 @@
         <v>0</v>
       </c>
       <c r="AP2" s="32" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="AQ2" s="32" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AR2" s="32" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="AS2" s="32" t="s">
         <v>1018</v>
       </c>
       <c r="AT2" s="32" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AY2" t="s">
         <v>408</v>
@@ -23101,7 +23095,7 @@
         <v>15</v>
       </c>
       <c r="BH2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="BI2" cm="1">
         <f t="array" ref="BI2">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("integer programming"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -23109,7 +23103,7 @@
       </c>
       <c r="BJ2" cm="1">
         <f t="array" ref="BJ2">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("integer programming"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("metaheuristic"),UPPER($AB$2:$AB$1000))))+(ISNUMBER(FIND(UPPER("meta-heuristic"),UPPER($AB$2:$AB$1000))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK2" cm="1">
         <f t="array" ref="BK2">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("integer programming"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("graph"),UPPER($AB$2:$AB$1000)))))</f>
@@ -23117,7 +23111,7 @@
       </c>
       <c r="BL2" cm="1">
         <f t="array" ref="BL2">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("integer programming"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("dynamic programming"),UPPER($AB$2:$AB$1000)))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2" cm="1">
         <f t="array" ref="BM2">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("integer programming"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("ml-based"),UPPER($AB$2:$AB$1000)))))</f>
@@ -23167,64 +23161,64 @@
         <v>1</v>
       </c>
       <c r="CG2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="CO2" s="41" t="s">
+        <v>1374</v>
+      </c>
+      <c r="CO2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="CP2" s="41">
+      <c r="CP2" s="40">
         <v>28</v>
       </c>
       <c r="CZ2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="DA2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="DB2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="DC2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="DD2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="DF2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="DG2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="DH2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="DI2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="DJ2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="DK2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="DL2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="DS2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="DT2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="EA2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="EB2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="EM2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="EN2">
         <v>0</v>
@@ -23236,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="ES2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="ET2">
         <v>0</v>
@@ -23248,34 +23242,34 @@
         <v>1</v>
       </c>
       <c r="FQ2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="FR2" t="s">
         <v>1266</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FS2" t="s">
         <v>1267</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FT2" t="s">
         <v>1268</v>
       </c>
-      <c r="FT2" t="s">
-        <v>1269</v>
-      </c>
       <c r="FV2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="FW2" t="s">
         <v>408</v>
       </c>
       <c r="FX2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="FY2" t="s">
         <v>142</v>
       </c>
       <c r="FZ2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="GA2" t="s">
         <v>1368</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>1369</v>
       </c>
       <c r="GB2" t="s">
         <v>114</v>
@@ -23284,10 +23278,10 @@
         <v>60</v>
       </c>
       <c r="GD2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="GE2" t="s">
         <v>1370</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>1371</v>
       </c>
       <c r="GF2" t="s">
         <v>292</v>
@@ -23308,34 +23302,34 @@
         <v>61</v>
       </c>
       <c r="GL2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="GM2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="GN2" t="s">
         <v>1372</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="GO2" t="s">
         <v>1373</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>1374</v>
       </c>
       <c r="GP2" t="s">
         <v>966</v>
       </c>
       <c r="GQ2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="GU2" t="s">
         <v>1400</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="GV2" t="s">
         <v>1401</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="GW2" t="s">
         <v>1402</v>
       </c>
-      <c r="GW2" t="s">
-        <v>1403</v>
-      </c>
       <c r="GZ2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="HA2" t="s">
         <v>46</v>
@@ -23347,34 +23341,34 @@
         <v>91</v>
       </c>
       <c r="HD2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="HE2" t="s">
         <v>1389</v>
       </c>
-      <c r="HE2" t="s">
-        <v>1390</v>
-      </c>
       <c r="HF2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="HG2" t="s">
         <v>60</v>
       </c>
       <c r="HH2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="HI2" t="s">
         <v>1391</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="HJ2" t="s">
         <v>1392</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="HK2" t="s">
         <v>1393</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="HL2" t="s">
         <v>1394</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="HM2" t="s">
         <v>1395</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="3" spans="1:221" ht="409.6">
@@ -23440,7 +23434,7 @@
         <v>60</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>62</v>
@@ -23523,7 +23517,7 @@
         <v>0</v>
       </c>
       <c r="BH3" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="BI3" cm="1">
         <f t="array" ref="BI3">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("data-flow"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -23556,12 +23550,12 @@
         <v>4</v>
       </c>
       <c r="CG3" t="s">
-        <v>1433</v>
-      </c>
-      <c r="CO3" s="41" t="s">
-        <v>1080</v>
-      </c>
-      <c r="CP3" s="41">
+        <v>1430</v>
+      </c>
+      <c r="CO3" s="40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="CP3" s="40">
         <v>12</v>
       </c>
       <c r="CS3" s="38"/>
@@ -23592,14 +23586,14 @@
         <v>17</v>
       </c>
       <c r="DH3" s="34" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="DI3" s="34" cm="1">
         <f t="array" ref="DI3">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("java",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("librar",LOWER(AE$2:AE$1000))))&gt;0)</f>
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="DT3">
         <v>40</v>
@@ -23641,7 +23635,7 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="FR3" s="35" cm="1">
         <f t="array" ref="FR3">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ3),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -23910,7 +23904,7 @@
       </c>
       <c r="AZ4" cm="1">
         <f t="array" ref="AZ4">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("probability"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA4" cm="1">
         <f t="array" ref="BA4">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("probability"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("metaheuristic"),UPPER($AB$2:$AB$1000))))+(ISNUMBER(FIND(UPPER("meta-heuristic"),UPPER($AB$2:$AB$1000))))))</f>
@@ -23933,7 +23927,7 @@
         <v>0</v>
       </c>
       <c r="BH4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="BI4" cm="1">
         <f t="array" ref="BI4">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("symbolic"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -23975,18 +23969,18 @@
         <v>3</v>
       </c>
       <c r="CG4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="CO4" s="41" t="s">
-        <v>1449</v>
-      </c>
-      <c r="CP4" s="41">
+        <v>1376</v>
+      </c>
+      <c r="CO4" s="40" t="s">
+        <v>1446</v>
+      </c>
+      <c r="CP4" s="40">
         <v>12</v>
       </c>
       <c r="CS4" s="38"/>
       <c r="CT4" s="38"/>
       <c r="CZ4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="DA4" cm="1">
         <f t="array" ref="DA4">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ4),LOWER(AD$2:AD$1000))))</f>
@@ -23998,33 +23992,33 @@
       </c>
       <c r="DC4" cm="1">
         <f t="array" ref="DC4">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ4),LOWER(AD$2:AD$1000))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DD4" cm="1">
         <f t="array" ref="DD4">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER(CZ4),LOWER(AD$2:AD$1000))))</f>
         <v>1</v>
       </c>
       <c r="DF4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="DG4">
         <v>16</v>
       </c>
       <c r="DH4" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="DI4" s="34" cm="1">
         <f t="array" ref="DI4">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("web",LOWER(AE$2:AE$1000))))</f>
         <v>4</v>
       </c>
       <c r="DS4" s="34" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="DT4">
         <v>19</v>
       </c>
       <c r="EA4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="EB4">
         <v>13</v>
@@ -24060,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="FR4" s="35" cm="1">
         <f t="array" ref="FR4">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ4),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -24333,7 +24327,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AZ5" cm="1">
         <f t="array" ref="AZ5">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("distribution"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -24360,7 +24354,7 @@
         <v>0</v>
       </c>
       <c r="BH5" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="BI5" cm="1">
         <f t="array" ref="BI5">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("dynamic"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -24387,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="BX5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="BY5">
         <v>4</v>
@@ -24399,18 +24393,18 @@
         <v>1</v>
       </c>
       <c r="CG5" t="s">
-        <v>1434</v>
-      </c>
-      <c r="CO5" s="41" t="s">
-        <v>1450</v>
-      </c>
-      <c r="CP5" s="41">
+        <v>1431</v>
+      </c>
+      <c r="CO5" s="40" t="s">
+        <v>1447</v>
+      </c>
+      <c r="CP5" s="40">
         <v>9</v>
       </c>
       <c r="CS5" s="38"/>
       <c r="CT5" s="38"/>
       <c r="CZ5" s="34" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="DA5" cm="1">
         <f t="array" ref="DA5">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ5),LOWER(AD$2:AD$1000))))</f>
@@ -24429,26 +24423,26 @@
         <v>0</v>
       </c>
       <c r="DF5" s="34" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="DG5">
         <v>8</v>
       </c>
       <c r="DH5" s="34" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="DI5" s="34" cm="1">
         <f t="array" ref="DI5">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("android",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("mobile",LOWER(AE$2:AE$1000))))&gt;0)</f>
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="DT5" s="34">
         <v>12</v>
       </c>
       <c r="EA5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="EB5">
         <v>9</v>
@@ -24484,7 +24478,7 @@
         <v>0</v>
       </c>
       <c r="FQ5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="FR5" s="35" cm="1">
         <f t="array" ref="FR5">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ5),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -24698,7 +24692,7 @@
         <v>104</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>91</v>
@@ -24755,7 +24749,7 @@
         <v>7</v>
       </c>
       <c r="AY6" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AZ6" cm="1">
         <f t="array" ref="AZ6">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("human"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -24809,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="BX6" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="BY6">
         <v>1</v>
@@ -24829,16 +24823,16 @@
       <c r="CL6">
         <v>1</v>
       </c>
-      <c r="CO6" s="41" t="s">
-        <v>1447</v>
-      </c>
-      <c r="CP6" s="41">
+      <c r="CO6" s="40" t="s">
+        <v>1444</v>
+      </c>
+      <c r="CP6" s="40">
         <v>8</v>
       </c>
       <c r="CS6" s="38"/>
       <c r="CT6" s="38"/>
       <c r="CZ6" s="34" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="DA6" cm="1">
         <f t="array" ref="DA6">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ6),LOWER(AD$2:AD$1000))))</f>
@@ -24857,26 +24851,26 @@
         <v>0</v>
       </c>
       <c r="DF6" s="34" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="DG6">
         <v>6</v>
       </c>
       <c r="DH6" s="34" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="DI6" s="34" cm="1">
         <f t="array" ref="DI6">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("command-line",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH(" cli",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("utilit",LOWER(AE$2:AE$1000))))&gt;0)</f>
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="DT6">
         <v>4</v>
       </c>
       <c r="EA6" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="EB6">
         <v>3</v>
@@ -24912,7 +24906,7 @@
         <v>1</v>
       </c>
       <c r="FQ6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="FR6" s="35" cm="1">
         <f t="array" ref="FR6">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ6),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -25120,7 +25114,7 @@
         <v>114</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>115</v>
@@ -25176,7 +25170,7 @@
         <v>6</v>
       </c>
       <c r="AY7" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AZ7" cm="1">
         <f t="array" ref="AZ7">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("clustering"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -25203,7 +25197,7 @@
         <v>0</v>
       </c>
       <c r="BH7" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="BI7" cm="1">
         <f t="array" ref="BI7">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("textual difference"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -25230,7 +25224,7 @@
         <v>0</v>
       </c>
       <c r="BX7" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="BY7">
         <v>2</v>
@@ -25239,18 +25233,18 @@
         <v>2</v>
       </c>
       <c r="CG7" t="s">
-        <v>1379</v>
-      </c>
-      <c r="CO7" s="41" t="s">
+        <v>1378</v>
+      </c>
+      <c r="CO7" s="40" t="s">
         <v>739</v>
       </c>
-      <c r="CP7" s="41">
+      <c r="CP7" s="40">
         <v>4</v>
       </c>
       <c r="CS7" s="38"/>
       <c r="CT7" s="38"/>
       <c r="CZ7" s="34" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="DA7" cm="1">
         <f t="array" ref="DA7">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ7),LOWER(AD$2:AD$1000))))</f>
@@ -25269,13 +25263,13 @@
         <v>0</v>
       </c>
       <c r="DF7" s="34" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="DG7">
         <v>5</v>
       </c>
       <c r="DH7" s="34" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="DI7" s="34" cm="1">
         <f t="array" ref="DI7">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("embedded",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("automotive",LOWER(AE$2:AE$1000))))&gt;0)</f>
@@ -25288,7 +25282,7 @@
         <v>3</v>
       </c>
       <c r="EA7" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="EB7">
         <v>3</v>
@@ -25324,7 +25318,7 @@
         <v>1</v>
       </c>
       <c r="FQ7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="FR7" s="35" cm="1">
         <f t="array" ref="FR7">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ7),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -25343,7 +25337,7 @@
       </c>
       <c r="FY7" s="35" cm="1">
         <f t="array" ref="FY7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("probab",LOWER(AA$2:AA$1000))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ7" s="35" cm="1">
         <f t="array" ref="FZ7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("distribution",LOWER(AA$2:AA$1000))))</f>
@@ -25355,7 +25349,7 @@
       </c>
       <c r="GB7" s="35" cm="1">
         <f t="array" ref="GB7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("history",LOWER(AA$2:AA$1000))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GC7" s="35" cm="1">
         <f t="array" ref="GC7">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV7)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000))))</f>
@@ -25541,7 +25535,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="AH8" s="2"/>
       <c r="AK8">
@@ -25584,7 +25578,7 @@
       </c>
       <c r="AZ8" cm="1">
         <f t="array" ref="AZ8">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("history"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA8" cm="1">
         <f t="array" ref="BA8">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("history"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("metaheuristic"),UPPER($AB$2:$AB$1000))))+(ISNUMBER(FIND(UPPER("meta-heuristic"),UPPER($AB$2:$AB$1000))))))</f>
@@ -25607,7 +25601,7 @@
         <v>0</v>
       </c>
       <c r="BH8" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="BI8" cm="1">
         <f t="array" ref="BI8">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("sdg"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -25646,18 +25640,18 @@
         <v>2</v>
       </c>
       <c r="CG8" t="s">
-        <v>1380</v>
-      </c>
-      <c r="CO8" s="41" t="s">
-        <v>1451</v>
-      </c>
-      <c r="CP8" s="41">
+        <v>1379</v>
+      </c>
+      <c r="CO8" s="40" t="s">
+        <v>1448</v>
+      </c>
+      <c r="CP8" s="40">
         <v>4</v>
       </c>
       <c r="CS8" s="38"/>
       <c r="CT8" s="38"/>
       <c r="CZ8" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="DA8" cm="1">
         <f t="array" ref="DA8">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ8),LOWER(AD$2:AD$1000))))</f>
@@ -25676,26 +25670,26 @@
         <v>1</v>
       </c>
       <c r="DF8" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="DG8">
         <v>5</v>
       </c>
       <c r="DH8" s="34" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="DI8" s="34" cm="1">
         <f t="array" ref="DI8">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("business",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("enterprise",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("banking",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("atm",LOWER(AE$2:AE$1000))))&gt;0)</f>
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="DT8">
         <v>2</v>
       </c>
       <c r="EA8" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="EB8">
         <v>3</v>
@@ -25731,11 +25725,11 @@
         <v>2</v>
       </c>
       <c r="FQ8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="FR8" s="35" cm="1">
         <f t="array" ref="FR8">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ8),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="FV8">
         <v>2018</v>
@@ -25960,7 +25954,7 @@
         <v>0.5</v>
       </c>
       <c r="AI9" s="36" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="AK9">
         <f t="shared" si="6"/>
@@ -26025,7 +26019,7 @@
         <v>1</v>
       </c>
       <c r="BH9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="BI9" cm="1">
         <f t="array" ref="BI9">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("path"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -26058,16 +26052,16 @@
         <v>5</v>
       </c>
       <c r="CG9" t="s">
-        <v>1381</v>
-      </c>
-      <c r="CO9" s="41" t="s">
-        <v>1323</v>
-      </c>
-      <c r="CP9" s="41">
+        <v>1380</v>
+      </c>
+      <c r="CO9" s="40" t="s">
+        <v>1322</v>
+      </c>
+      <c r="CP9" s="40">
         <v>3</v>
       </c>
       <c r="CZ9" s="34" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="DA9" cm="1">
         <f t="array" ref="DA9">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ9),LOWER(AD$2:AD$1000))))</f>
@@ -26093,14 +26087,14 @@
         <v>37</v>
       </c>
       <c r="DH9" s="34" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="DI9" s="34" cm="1">
         <f t="array" ref="DI9">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("robotic",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("industrial",LOWER(AE$2:AE$1000))))&gt;0)</f>
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="DT9">
         <v>2</v>
@@ -26136,7 +26130,7 @@
         <v>1</v>
       </c>
       <c r="FQ9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="FR9" s="35" cm="1">
         <f t="array" ref="FR9">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ9),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -26223,7 +26217,7 @@
       </c>
       <c r="GP9" s="35" cm="1">
         <f t="array" ref="GP9">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV9)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("other",LOWER(AA$2:AA$1000))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GQ9">
         <f t="shared" si="8"/>
@@ -26397,14 +26391,14 @@
       </c>
       <c r="AS10">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT10">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AY10" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="AZ10" cm="1">
         <f t="array" ref="AZ10">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("cost"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -26458,7 +26452,7 @@
         <v>1</v>
       </c>
       <c r="BX10" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="BY10">
         <v>3</v>
@@ -26481,14 +26475,14 @@
       <c r="CK10">
         <v>2</v>
       </c>
-      <c r="CO10" s="41" t="s">
-        <v>1452</v>
-      </c>
-      <c r="CP10" s="41">
+      <c r="CO10" s="40" t="s">
+        <v>1449</v>
+      </c>
+      <c r="CP10" s="40">
         <v>3</v>
       </c>
       <c r="CZ10" s="34" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="DA10" cm="1">
         <f t="array" ref="DA10">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ10),LOWER(AD$2:AD$1000))))</f>
@@ -26507,14 +26501,14 @@
         <v>0</v>
       </c>
       <c r="DH10" s="34" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="DI10" s="34" cm="1">
         <f t="array" ref="DI10">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("open source",LOWER(AE$2:AE$1000))))</f>
         <v>2</v>
       </c>
       <c r="DS10" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="DT10" s="34">
         <v>2</v>
@@ -26550,11 +26544,11 @@
         <v>3</v>
       </c>
       <c r="FQ10" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="FR10" s="35" cm="1">
         <f t="array" ref="FR10">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ10),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="FV10">
         <v>2020</v>
@@ -26755,7 +26749,7 @@
         <v>169</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AB11" s="2" t="s">
         <v>91</v>
@@ -26830,7 +26824,7 @@
       </c>
       <c r="BC11" cm="1">
         <f t="array" ref="BC11">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("dynamic programming"),UPPER($AB$2:$AB$1000)))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" cm="1">
         <f t="array" ref="BD11">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("prioritization"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("ml-based"),UPPER($AB$2:$AB$1000)))))</f>
@@ -26841,7 +26835,7 @@
         <v>1</v>
       </c>
       <c r="BH11" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="BI11" cm="1">
         <f t="array" ref="BI11">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("firewall"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -26877,16 +26871,16 @@
         <v>1</v>
       </c>
       <c r="CG11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="CO11" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="CP11" s="41">
+        <v>1382</v>
+      </c>
+      <c r="CO11" s="40" t="s">
+        <v>1324</v>
+      </c>
+      <c r="CP11" s="40">
         <v>2</v>
       </c>
       <c r="CZ11" s="34" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="DA11" cm="1">
         <f t="array" ref="DA11">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ11),LOWER(AD$2:AD$1000))))</f>
@@ -26905,14 +26899,14 @@
         <v>0</v>
       </c>
       <c r="DH11" s="34" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="DI11" s="34" cm="1">
         <f t="array" ref="DI11">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH("benchmark",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("synthetic",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("simulat",LOWER(AE$2:AE$1000))))&gt;0)</f>
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="DT11">
         <v>2</v>
@@ -26948,7 +26942,7 @@
         <v>3</v>
       </c>
       <c r="FQ11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="FR11" s="35" cm="1">
         <f t="array" ref="FR11">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ11),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -27153,7 +27147,7 @@
         <v>181</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="AB12" s="2" t="s">
         <v>130</v>
@@ -27205,14 +27199,14 @@
       </c>
       <c r="AS12">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT12">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BH12" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="BI12" cm="1">
         <f t="array" ref="BI12">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("cluster"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -27239,16 +27233,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>1384</v>
-      </c>
-      <c r="CO12" s="41" t="s">
-        <v>1324</v>
-      </c>
-      <c r="CP12" s="41">
+        <v>1383</v>
+      </c>
+      <c r="CO12" s="40" t="s">
+        <v>1323</v>
+      </c>
+      <c r="CP12" s="40">
         <v>2</v>
       </c>
       <c r="CZ12" s="34" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="DA12" cm="1">
         <f t="array" ref="DA12">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ12),LOWER(AD$2:AD$1000))))</f>
@@ -27267,14 +27261,14 @@
         <v>0</v>
       </c>
       <c r="DH12" s="34" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="DI12" s="34" cm="1">
         <f t="array" ref="DI12">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("desktop",LOWER(AE$2:AE$1000))))</f>
         <v>1</v>
       </c>
       <c r="DS12" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="DT12">
         <v>1</v>
@@ -27310,7 +27304,7 @@
         <v>4</v>
       </c>
       <c r="FQ12" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="FR12" s="35" cm="1">
         <f t="array" ref="FR12">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ12),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -27341,7 +27335,7 @@
       </c>
       <c r="GB12" s="35" cm="1">
         <f t="array" ref="GB12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("history",LOWER(AA$2:AA$1000))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="GC12" s="35" cm="1">
         <f t="array" ref="GC12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000))))</f>
@@ -27349,7 +27343,7 @@
       </c>
       <c r="GD12" s="35" cm="1">
         <f t="array" ref="GD12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("cost-aware",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE12" s="35" cm="1">
         <f t="array" ref="GE12">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV12)*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("similarity",LOWER(AA$2:AA$1000))))</f>
@@ -27512,9 +27506,11 @@
       <c r="Z13" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2" t="s">
+        <v>1417</v>
+      </c>
       <c r="AB13" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC13" s="2" t="s">
         <v>194</v>
@@ -27570,7 +27566,7 @@
         <v>7</v>
       </c>
       <c r="BH13" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="BI13" cm="1">
         <f t="array" ref="BI13">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("design"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("heuristic"),UPPER($AB$2:$AB$1000))))*(NOT(ISNUMBER(FIND(UPPER("meta"),UPPER($AB$2:$AB$1000)))))))</f>
@@ -27597,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>1374</v>
-      </c>
-      <c r="CO13" s="41" t="s">
-        <v>1453</v>
-      </c>
-      <c r="CP13" s="41">
+        <v>1373</v>
+      </c>
+      <c r="CO13" s="40" t="s">
+        <v>1450</v>
+      </c>
+      <c r="CP13" s="40">
         <v>2</v>
       </c>
       <c r="CZ13" s="34" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="DA13" cm="1">
         <f t="array" ref="DA13">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ13),LOWER(AD$2:AD$1000))))</f>
@@ -27625,7 +27621,7 @@
         <v>1</v>
       </c>
       <c r="DH13" s="34" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="DI13" s="34" cm="1">
         <f t="array" ref="DI13">SUMPRODUCT((Y$2:Y$1000="PS")*(ISNUMBER(SEARCH(" ci",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("ci-",LOWER(AE$2:AE$1000)))+ISNUMBER(SEARCH("continuous",LOWER(AE$2:AE$1000))))&gt;0)</f>
@@ -27662,7 +27658,7 @@
         <v>4</v>
       </c>
       <c r="FQ13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="FR13" s="35" cm="1">
         <f t="array" ref="FR13">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ13),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -27938,7 +27934,7 @@
       </c>
       <c r="BJ14" cm="1">
         <f t="array" ref="BJ14">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*((ISNUMBER(FIND(UPPER("metaheuristic"),UPPER($AB$2:$AB$1000))))+(ISNUMBER(FIND(UPPER("meta-heuristic"),UPPER($AB$2:$AB$1000))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BK14" cm="1">
         <f t="array" ref="BK14">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("graph"),UPPER($AB$2:$AB$1000)))))</f>
@@ -27946,7 +27942,7 @@
       </c>
       <c r="BL14" cm="1">
         <f t="array" ref="BL14">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("dynamic programming"),UPPER($AB$2:$AB$1000)))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM14" cm="1">
         <f t="array" ref="BM14">SUMPRODUCT(($Y$2:$Y$1000="PS")*(ISNUMBER(FIND(UPPER("selection"),UPPER($Z$2:$Z$1000))))*(ISNUMBER(FIND(UPPER("other"),UPPER($AA$2:$AA$1000))))*(ISNUMBER(FIND(UPPER("ml-based"),UPPER($AB$2:$AB$1000)))))</f>
@@ -27959,14 +27955,14 @@
       <c r="CG14" t="s">
         <v>966</v>
       </c>
-      <c r="CO14" s="41" t="s">
-        <v>1454</v>
-      </c>
-      <c r="CP14" s="41">
+      <c r="CO14" s="40" t="s">
+        <v>1451</v>
+      </c>
+      <c r="CP14" s="40">
         <v>2</v>
       </c>
       <c r="CZ14" s="34" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="DA14" cm="1">
         <f t="array" ref="DA14">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ14),LOWER(AD$2:AD$1000))))</f>
@@ -27985,7 +27981,7 @@
         <v>0</v>
       </c>
       <c r="DH14" s="34" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="DI14" s="34" cm="1">
         <f t="array" ref="DI14">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("multimedia",LOWER(AE$2:AE$1000))))</f>
@@ -28022,7 +28018,7 @@
         <v>3</v>
       </c>
       <c r="FQ14" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="FR14" s="35" cm="1">
         <f t="array" ref="FR14">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ14),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -28285,14 +28281,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CO15" s="41" t="s">
-        <v>1455</v>
-      </c>
-      <c r="CP15" s="41">
+      <c r="CO15" s="40" t="s">
+        <v>1452</v>
+      </c>
+      <c r="CP15" s="40">
         <v>1</v>
       </c>
       <c r="CZ15" s="34" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="DA15" cm="1">
         <f t="array" ref="DA15">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ15),LOWER(AD$2:AD$1000))))</f>
@@ -28311,7 +28307,7 @@
         <v>0</v>
       </c>
       <c r="DH15" s="34" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="DI15" s="34" cm="1">
         <f t="array" ref="DI15">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("game",LOWER(AE$2:AE$1000))))</f>
@@ -28348,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="FQ15" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="FR15" s="35" cm="1">
         <f t="array" ref="FR15">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ15),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -28556,7 +28552,7 @@
         <v>90</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>105</v>
@@ -28591,7 +28587,7 @@
         <v>1</v>
       </c>
       <c r="AP16" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -28605,14 +28601,14 @@
       <c r="AT16" s="33">
         <v>119</v>
       </c>
-      <c r="CO16" s="41" t="s">
-        <v>1456</v>
-      </c>
-      <c r="CP16" s="41">
+      <c r="CO16" s="40" t="s">
+        <v>1453</v>
+      </c>
+      <c r="CP16" s="40">
         <v>1</v>
       </c>
       <c r="CZ16" s="34" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="DA16" cm="1">
         <f t="array" ref="DA16">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ16),LOWER(AD$2:AD$1000))))</f>
@@ -28631,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="EM16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="EN16">
         <f>SUM(EN3:EN15)</f>
@@ -28650,7 +28646,7 @@
         <v>121</v>
       </c>
       <c r="ES16" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="ET16">
         <f>SUM(ET3:ET15)</f>
@@ -28669,7 +28665,7 @@
         <v>109</v>
       </c>
       <c r="FQ16" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="FR16" s="35" cm="1">
         <f t="array" ref="FR16">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ16),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -28736,7 +28732,7 @@
         <v>169</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>91</v>
@@ -28773,14 +28769,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CO17" s="41" t="s">
-        <v>1457</v>
-      </c>
-      <c r="CP17" s="41">
+      <c r="CO17" s="40" t="s">
+        <v>1454</v>
+      </c>
+      <c r="CP17" s="40">
         <v>1</v>
       </c>
       <c r="CZ17" s="34" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="DA17" cm="1">
         <f t="array" ref="DA17">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ17),LOWER(AD$2:AD$1000))))</f>
@@ -28799,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="FQ17" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="FR17" s="35" cm="1">
         <f t="array" ref="FR17">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ17),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -28862,7 +28858,7 @@
         <v>257</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="AB18" s="2" t="s">
         <v>207</v>
@@ -28901,14 +28897,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CO18" s="41" t="s">
-        <v>1458</v>
-      </c>
-      <c r="CP18" s="41">
+      <c r="CO18" s="40" t="s">
+        <v>1455</v>
+      </c>
+      <c r="CP18" s="40">
         <v>1</v>
       </c>
       <c r="CZ18" s="34" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="DA18" cm="1">
         <f t="array" ref="DA18">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ18),LOWER(AD$2:AD$1000))))</f>
@@ -28927,10 +28923,10 @@
         <v>0</v>
       </c>
       <c r="EM18" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="FQ18" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="FR18" s="35" cm="1">
         <f t="array" ref="FR18">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ18),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -29034,14 +29030,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CO19" s="41" t="s">
+      <c r="CO19" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="CP19" s="41">
+      <c r="CP19" s="40">
         <v>1</v>
       </c>
       <c r="CZ19" s="34" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="DA19" cm="1">
         <f t="array" ref="DA19">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ19),LOWER(AD$2:AD$1000))))</f>
@@ -29060,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="EM19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="EN19">
         <v>0</v>
@@ -29072,14 +29068,14 @@
         <v>1</v>
       </c>
       <c r="FQ19" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="FR19" s="35" cm="1">
         <f t="array" ref="FR19">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ19),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
         <v>0</v>
       </c>
       <c r="GZ19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="HA19" t="s">
         <v>46</v>
@@ -29094,31 +29090,31 @@
         <v>207</v>
       </c>
       <c r="HE19" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="HF19" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="HG19" t="s">
         <v>60</v>
       </c>
       <c r="HH19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="HI19" t="s">
         <v>1391</v>
       </c>
-      <c r="HI19" t="s">
-        <v>1392</v>
-      </c>
       <c r="HJ19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="HK19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="HL19" t="s">
         <v>1397</v>
       </c>
-      <c r="HK19" t="s">
-        <v>1394</v>
-      </c>
-      <c r="HL19" t="s">
-        <v>1398</v>
-      </c>
       <c r="HM19" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="20" spans="1:221" ht="409.6">
@@ -29216,14 +29212,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="CO20" s="41" t="s">
-        <v>1459</v>
-      </c>
-      <c r="CP20" s="41">
+      <c r="CO20" s="40" t="s">
+        <v>1456</v>
+      </c>
+      <c r="CP20" s="40">
         <v>1</v>
       </c>
       <c r="CZ20" s="34" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="DA20" cm="1">
         <f t="array" ref="DA20">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ20),LOWER(AD$2:AD$1000))))</f>
@@ -29257,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="FQ20" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="FR20" s="35" cm="1">
         <f t="array" ref="FR20">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ20),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -29375,7 +29371,7 @@
         <v>205</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="AB21" s="2" t="s">
         <v>91</v>
@@ -29413,7 +29409,7 @@
         <v>1</v>
       </c>
       <c r="CZ21" s="34" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="DA21" cm="1">
         <f t="array" ref="DA21">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ21),LOWER(AD$2:AD$1000))))</f>
@@ -29447,7 +29443,7 @@
         <v>0</v>
       </c>
       <c r="FQ21" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="FR21" s="35" cm="1">
         <f t="array" ref="FR21">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ21),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
@@ -29605,7 +29601,7 @@
         <v>1</v>
       </c>
       <c r="CZ22" s="34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="DA22" cm="1">
         <f t="array" ref="DA22">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(CZ22),LOWER(AD$2:AD$1000))))</f>
@@ -29639,11 +29635,11 @@
         <v>0</v>
       </c>
       <c r="FQ22" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="FR22" s="35" cm="1">
         <f t="array" ref="FR22">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ22),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="GZ22">
         <v>2015</v>
@@ -29757,7 +29753,7 @@
         <v>257</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="AB23" s="2" t="s">
         <v>91</v>
@@ -29812,11 +29808,11 @@
         <v>0</v>
       </c>
       <c r="FQ23" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="FR23" s="35" cm="1">
         <f t="array" ref="FR23">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("prioritization",LOWER(Z$2:Z$1000)))*(NOT(ISNUMBER(SEARCH("coverage",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("requirement",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("probabilistic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("distribution",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("clustering",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("history",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cost-aware",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("similarity",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("input",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("structure",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("change",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("ml",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("heuristic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("search",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("transfer",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("risk",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("nlp",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("design",LOWER(AA$2:AA$1000))))))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="GZ23">
         <v>2016</v>
@@ -29983,7 +29979,7 @@
         <v>0</v>
       </c>
       <c r="FQ24" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="GZ24">
         <v>2017</v>
@@ -30152,10 +30148,10 @@
         <v>0</v>
       </c>
       <c r="FQ25" t="s">
+        <v>1265</v>
+      </c>
+      <c r="FR25" t="s">
         <v>1266</v>
-      </c>
-      <c r="FR25" t="s">
-        <v>1267</v>
       </c>
       <c r="GZ25">
         <v>2018</v>
@@ -30274,7 +30270,7 @@
         <v>356</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="AC26" s="2" t="s">
         <v>357</v>
@@ -30326,11 +30322,11 @@
         <v>0</v>
       </c>
       <c r="FQ26" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="FR26" s="35" cm="1">
         <f t="array" ref="FR26">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ26),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="GZ26">
         <v>2019</v>
@@ -30490,7 +30486,7 @@
       </c>
       <c r="EN27" cm="1">
         <f t="array" ref="EN27">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM27)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0"),LOWER(AH$2:AH$1000))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO27" cm="1">
         <f t="array" ref="EO27">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=EM27)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("0,5"),LOWER(AH$2:AH$1000))))</f>
@@ -30501,7 +30497,7 @@
         <v>1</v>
       </c>
       <c r="FQ27" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="FR27" s="35" cm="1">
         <f t="array" ref="FR27">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ27),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -30520,7 +30516,7 @@
       </c>
       <c r="HC27" cm="1">
         <f t="array" ref="HC27">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=GZ27)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("heuristic"),LOWER(AB$2:AB$1000))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HD27" cm="1">
         <f t="array" ref="HD27">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=GZ27)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH(LOWER("ml"),LOWER(AB$2:AB$1000))))</f>
@@ -30670,11 +30666,11 @@
         <v>1</v>
       </c>
       <c r="FQ28" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="FR28" s="35" cm="1">
         <f t="array" ref="FR28">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ28),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ28">
         <v>2021</v>
@@ -30788,10 +30784,10 @@
         <v>355</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>384</v>
@@ -30843,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="FQ29" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="FR29" s="35" cm="1">
         <f t="array" ref="FR29">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ29),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -31014,7 +31010,7 @@
         <v>1</v>
       </c>
       <c r="FQ30" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="FR30" s="35" cm="1">
         <f t="array" ref="FR30">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ30),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -31191,7 +31187,7 @@
         <v>0</v>
       </c>
       <c r="FQ31" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="FR31" s="35" cm="1">
         <f t="array" ref="FR31">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ31),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -31366,7 +31362,7 @@
         <v>0</v>
       </c>
       <c r="FQ32" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="FR32" s="35" cm="1">
         <f t="array" ref="FR32">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ32),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -31508,11 +31504,11 @@
         <v>0</v>
       </c>
       <c r="EM33" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="EN33">
         <f>SUM(EN20:EN32)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="EO33">
         <f>SUM(EO20:EO32)</f>
@@ -31524,10 +31520,10 @@
       </c>
       <c r="EQ33">
         <f>SUM(EN33:EP33)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="FQ33" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="FR33" s="35" cm="1">
         <f t="array" ref="FR33">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ33),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -31593,7 +31589,7 @@
         <v>408</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC34" s="2" t="s">
         <v>115</v>
@@ -31630,11 +31626,11 @@
         <v>1</v>
       </c>
       <c r="FQ34" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="FR34" s="35" cm="1">
         <f t="array" ref="FR34">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ34),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:221" ht="144">
@@ -31698,17 +31694,17 @@
         <v>1</v>
       </c>
       <c r="EM35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="FQ35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="FR35" s="35" cm="1">
         <f t="array" ref="FR35">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ35),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
         <v>0</v>
       </c>
       <c r="FV35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="36" spans="1:221" ht="409.6">
@@ -31734,10 +31730,10 @@
         <v>472</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="AB36" s="7" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="AC36" s="8"/>
       <c r="AD36" s="6" t="s">
@@ -31772,7 +31768,7 @@
         <v>0</v>
       </c>
       <c r="EM36" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="EN36">
         <v>0</v>
@@ -31784,59 +31780,59 @@
         <v>1</v>
       </c>
       <c r="FQ36" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="FR36" s="35" cm="1">
         <f t="array" ref="FR36">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ36),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
         <v>0</v>
       </c>
       <c r="FV36" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="FW36" t="s">
+        <v>1374</v>
+      </c>
+      <c r="FX36" t="s">
         <v>1375</v>
       </c>
-      <c r="FX36" t="s">
+      <c r="FY36" t="s">
         <v>1376</v>
       </c>
-      <c r="FY36" t="s">
+      <c r="FZ36" t="s">
         <v>1377</v>
-      </c>
-      <c r="FZ36" t="s">
-        <v>1378</v>
       </c>
       <c r="GA36" t="s">
         <v>868</v>
       </c>
       <c r="GB36" t="s">
+        <v>1378</v>
+      </c>
+      <c r="GC36" t="s">
         <v>1379</v>
       </c>
-      <c r="GC36" t="s">
+      <c r="GD36" t="s">
         <v>1380</v>
       </c>
-      <c r="GD36" t="s">
+      <c r="GE36" t="s">
         <v>1381</v>
       </c>
-      <c r="GE36" t="s">
+      <c r="GF36" t="s">
         <v>1382</v>
       </c>
-      <c r="GF36" t="s">
+      <c r="GG36" t="s">
         <v>1383</v>
       </c>
-      <c r="GG36" t="s">
+      <c r="GH36" t="s">
+        <v>1373</v>
+      </c>
+      <c r="GI36" t="s">
         <v>1384</v>
       </c>
-      <c r="GH36" t="s">
-        <v>1374</v>
-      </c>
-      <c r="GI36" t="s">
+      <c r="GJ36" t="s">
         <v>1385</v>
       </c>
-      <c r="GJ36" t="s">
+      <c r="GK36" t="s">
         <v>1386</v>
-      </c>
-      <c r="GK36" t="s">
-        <v>1387</v>
       </c>
       <c r="GL36" t="s">
         <v>408</v>
@@ -31848,58 +31844,58 @@
         <v>60</v>
       </c>
       <c r="GO36" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="GP36" t="s">
+        <v>1369</v>
+      </c>
+      <c r="GQ36" t="s">
         <v>1370</v>
-      </c>
-      <c r="GQ36" t="s">
-        <v>1371</v>
       </c>
       <c r="GR36" t="s">
         <v>966</v>
       </c>
       <c r="GZ36" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="HA36" t="s">
+        <v>1310</v>
+      </c>
+      <c r="HB36" t="s">
+        <v>1283</v>
+      </c>
+      <c r="HC36" t="s">
+        <v>1282</v>
+      </c>
+      <c r="HD36" t="s">
+        <v>1281</v>
+      </c>
+      <c r="HE36" t="s">
         <v>1311</v>
       </c>
-      <c r="HB36" t="s">
-        <v>1284</v>
-      </c>
-      <c r="HC36" t="s">
-        <v>1283</v>
-      </c>
-      <c r="HD36" t="s">
-        <v>1282</v>
-      </c>
-      <c r="HE36" t="s">
+      <c r="HF36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="HG36" t="s">
+        <v>1275</v>
+      </c>
+      <c r="HH36" t="s">
         <v>1312</v>
       </c>
-      <c r="HF36" t="s">
-        <v>1278</v>
-      </c>
-      <c r="HG36" t="s">
-        <v>1276</v>
-      </c>
-      <c r="HH36" t="s">
+      <c r="HI36" t="s">
         <v>1313</v>
       </c>
-      <c r="HI36" t="s">
+      <c r="HJ36" t="s">
         <v>1314</v>
       </c>
-      <c r="HJ36" t="s">
+      <c r="HK36" t="s">
+        <v>1292</v>
+      </c>
+      <c r="HL36" t="s">
         <v>1315</v>
       </c>
-      <c r="HK36" t="s">
-        <v>1293</v>
-      </c>
-      <c r="HL36" t="s">
-        <v>1316</v>
-      </c>
       <c r="HM36" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="37" spans="1:221" ht="112">
@@ -31971,7 +31967,7 @@
         <v>1</v>
       </c>
       <c r="FQ37" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="FR37" s="35" cm="1">
         <f t="array" ref="FR37">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ37),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -32147,7 +32143,7 @@
         <v>490</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AB38" s="10" t="s">
         <v>91</v>
@@ -32188,7 +32184,7 @@
         <v>2014</v>
       </c>
       <c r="FQ38" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="FR38" s="35" cm="1">
         <f t="array" ref="FR38">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ38),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -32364,10 +32360,10 @@
         <v>499</v>
       </c>
       <c r="AA39" s="12" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="AC39" s="12"/>
       <c r="AD39" s="12" t="s">
@@ -32405,7 +32401,7 @@
         <v>2015</v>
       </c>
       <c r="FQ39" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="FR39" s="35" cm="1">
         <f t="array" ref="FR39">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ39),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -32578,7 +32574,7 @@
         <v>58</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="AA40" s="14" t="s">
         <v>129</v>
@@ -32622,7 +32618,7 @@
         <v>2016</v>
       </c>
       <c r="FQ40" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="FR40" s="35" cm="1">
         <f t="array" ref="FR40">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ40),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -32641,7 +32637,7 @@
       </c>
       <c r="FY40" cm="1">
         <f t="array" ref="FY40">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV40)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("symbolic",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ40" cm="1">
         <f t="array" ref="FZ40">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV40)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("dynamyc",LOWER(AA$2:AA$1000))))</f>
@@ -32717,7 +32713,7 @@
       </c>
       <c r="GR40" s="35" cm="1">
         <f t="array" ref="GR40">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV40)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*(NOT(ISNUMBER(SEARCH("integer",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("data-flow",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("symbolic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("dynamic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("graph",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("textual",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("sdg",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("path",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("mod",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("firewall",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cluster",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("design",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("hybrid",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("selection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("detection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("coverage",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("change",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("history",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cost-aware",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("similarity",LOWER(AA$2:AA$1000))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ40">
         <v>2016</v>
@@ -32839,11 +32835,11 @@
         <v>2017</v>
       </c>
       <c r="FQ41" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="FR41" s="35" cm="1">
         <f t="array" ref="FR41">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ41),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV41">
         <v>2017</v>
@@ -32934,7 +32930,7 @@
       </c>
       <c r="GR41" s="35" cm="1">
         <f t="array" ref="GR41">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV41)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*(NOT(ISNUMBER(SEARCH("integer",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("data-flow",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("symbolic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("dynamic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("graph",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("textual",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("sdg",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("path",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("mod",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("firewall",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cluster",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("design",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("hybrid",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("selection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("detection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("coverage",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("change",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("history",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cost-aware",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("similarity",LOWER(AA$2:AA$1000))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ41">
         <v>2017</v>
@@ -33018,7 +33014,7 @@
         <v>526</v>
       </c>
       <c r="AB42" s="7" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>384</v>
@@ -33058,7 +33054,7 @@
         <v>2018</v>
       </c>
       <c r="FQ42" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="FR42" s="35" cm="1">
         <f t="array" ref="FR42">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ42),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -33069,7 +33065,7 @@
       </c>
       <c r="FW42" s="35" cm="1">
         <f t="array" ref="FW42">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV42)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("integer",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FX42" cm="1">
         <f t="array" ref="FX42">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV42)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("data-flow",LOWER(AA$2:AA$1000))))</f>
@@ -33129,7 +33125,7 @@
       </c>
       <c r="GL42" cm="1">
         <f t="array" ref="GL42">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV42)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("coverage",LOWER(AA$2:AA$1000))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM42" cm="1">
         <f t="array" ref="GM42">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV42)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("change",LOWER(AA$2:AA$1000))))</f>
@@ -33153,7 +33149,7 @@
       </c>
       <c r="GR42" s="35" cm="1">
         <f t="array" ref="GR42">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV42)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*(NOT(ISNUMBER(SEARCH("integer",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("data-flow",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("symbolic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("dynamic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("graph",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("textual",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("sdg",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("path",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("mod",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("firewall",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cluster",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("design",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("hybrid",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("selection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("detection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("coverage",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("change",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("history",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cost-aware",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("similarity",LOWER(AA$2:AA$1000))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GZ42">
         <v>2018</v>
@@ -33261,18 +33257,18 @@
         <v>2019</v>
       </c>
       <c r="FQ43" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="FR43" s="35" cm="1">
         <f t="array" ref="FR43">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ43),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV43">
         <v>2019</v>
       </c>
       <c r="FW43" s="35" cm="1">
         <f t="array" ref="FW43">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV43)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("integer",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX43" cm="1">
         <f t="array" ref="FX43">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV43)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("data-flow",LOWER(AA$2:AA$1000))))</f>
@@ -33356,7 +33352,7 @@
       </c>
       <c r="GR43" s="35" cm="1">
         <f t="array" ref="GR43">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV43)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*(NOT(ISNUMBER(SEARCH("integer",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("data-flow",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("symbolic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("dynamic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("graph",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("textual",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("sdg",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("path",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("mod",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("firewall",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cluster",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("design",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("hybrid",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("selection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("detection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("coverage",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("change",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("history",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cost-aware",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("similarity",LOWER(AA$2:AA$1000))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GZ43">
         <v>2019</v>
@@ -33437,7 +33433,7 @@
         <v>540</v>
       </c>
       <c r="AA44" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AB44" s="7" t="s">
         <v>91</v>
@@ -33478,18 +33474,18 @@
         <v>2020</v>
       </c>
       <c r="FQ44" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="FR44" s="35" cm="1">
         <f t="array" ref="FR44">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ44),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FV44">
         <v>2020</v>
       </c>
       <c r="FW44" s="35" cm="1">
         <f t="array" ref="FW44">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV44)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("integer",LOWER(AA$2:AA$1000))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX44" cm="1">
         <f t="array" ref="FX44">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV44)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("data-flow",LOWER(AA$2:AA$1000))))</f>
@@ -33521,7 +33517,7 @@
       </c>
       <c r="GE44" cm="1">
         <f t="array" ref="GE44">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV44)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("mod",LOWER(AA$2:AA$1000))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GF44" cm="1">
         <f t="array" ref="GF44">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV44)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("firewall",LOWER(AA$2:AA$1000))))</f>
@@ -33557,7 +33553,7 @@
       </c>
       <c r="GN44" cm="1">
         <f t="array" ref="GN44">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV44)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO44" cm="1">
         <f t="array" ref="GO44">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV44)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*ISNUMBER(SEARCH("hystory",LOWER(AA$2:AA$1000))))</f>
@@ -33573,7 +33569,7 @@
       </c>
       <c r="GR44" s="35" cm="1">
         <f t="array" ref="GR44">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV44)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*(NOT(ISNUMBER(SEARCH("integer",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("data-flow",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("symbolic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("dynamic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("graph",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("textual",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("sdg",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("path",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("mod",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("firewall",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cluster",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("design",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("hybrid",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("selection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("detection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("coverage",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("change",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("history",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cost-aware",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("similarity",LOWER(AA$2:AA$1000))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ44">
         <v>2020</v>
@@ -33657,7 +33653,7 @@
         <v>408</v>
       </c>
       <c r="AB45" s="7" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC45" s="8"/>
       <c r="AD45" s="7" t="s">
@@ -33695,7 +33691,7 @@
         <v>2021</v>
       </c>
       <c r="FQ45" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="FR45" s="35" cm="1">
         <f t="array" ref="FR45">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ45),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -33901,7 +33897,7 @@
         <v>1</v>
       </c>
       <c r="FQ46" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="FR46" s="35" cm="1">
         <f t="array" ref="FR46">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH(LOWER(FQ46),LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000))))</f>
@@ -33996,7 +33992,7 @@
       </c>
       <c r="GR46" s="35" cm="1">
         <f t="array" ref="GR46">SUMPRODUCT((Y$2:Y$1000="PS")*(F$2:F$1000=FV46)*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*(NOT(ISNUMBER(SEARCH("integer",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("data-flow",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("symbolic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("dynamic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("graph",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("textual",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("sdg",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("path",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("mod",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("firewall",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cluster",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("design",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("hybrid",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("selection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("detection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("coverage",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("change",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("history",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cost-aware",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("similarity",LOWER(AA$2:AA$1000))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ46">
         <v>2022</v>
@@ -34104,11 +34100,11 @@
         <v>2023</v>
       </c>
       <c r="FQ47" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="FR47" s="35" cm="1">
         <f t="array" ref="FR47">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("selection",LOWER(Z$2:Z$1000)))*(NOT(ISNUMBER(SEARCH("integer",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("data-flow",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("symbolic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("dynamic",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("graph",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("textual",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("sdg",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("path",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("mod",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("firewall",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cluster",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("design",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("hybrid",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("selection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("detection",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("coverage",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("change",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("model",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("history",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("cost-aware",LOWER(AA$2:AA$1000)))))*(NOT(ISNUMBER(SEARCH("similarity",LOWER(AA$2:AA$1000))))))</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="FV47">
         <v>2023</v>
@@ -34283,7 +34279,7 @@
         <v>408</v>
       </c>
       <c r="AB48" s="7" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7" t="s">
@@ -34496,7 +34492,7 @@
         <v>578</v>
       </c>
       <c r="AB49" s="7" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC49" s="7"/>
       <c r="AD49" s="6" t="s">
@@ -34703,10 +34699,10 @@
         <v>587</v>
       </c>
       <c r="AA50" s="18" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AB50" s="18" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="AC50" s="18"/>
       <c r="AD50" s="18" t="s">
@@ -34741,7 +34737,7 @@
         <v>1</v>
       </c>
       <c r="EM50" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="EN50">
         <v>2</v>
@@ -34759,7 +34755,7 @@
         <v>704</v>
       </c>
       <c r="FQ50" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="51" spans="3:221" ht="96">
@@ -34823,10 +34819,10 @@
         <v>1</v>
       </c>
       <c r="FQ51" t="s">
+        <v>1265</v>
+      </c>
+      <c r="FR51" t="s">
         <v>1266</v>
-      </c>
-      <c r="FR51" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="52" spans="3:221" ht="112">
@@ -34855,7 +34851,7 @@
         <v>408</v>
       </c>
       <c r="AB52" s="18" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC52" s="18" t="s">
         <v>384</v>
@@ -34892,7 +34888,7 @@
         <v>1</v>
       </c>
       <c r="FQ52" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="FR52" s="35" cm="1">
         <f t="array" ref="FR52">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("search-based",LOWER(AA$2:AA$1000)))*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000))))</f>
@@ -34960,7 +34956,7 @@
         <v>1</v>
       </c>
       <c r="FQ53" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="FR53" s="35" cm="1">
         <f t="array" ref="FR53">SUMPRODUCT((Y$2:Y$1000="PS")*ISNUMBER(SEARCH("minimization",LOWER(Z$2:Z$1000)))*(NOT(ISNUMBER(SEARCH("search-based",LOWER(AA$2:AA$1000))))))</f>
@@ -34993,7 +34989,7 @@
         <v>142</v>
       </c>
       <c r="AB54" s="18" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="AC54" s="18"/>
       <c r="AD54" s="18" t="s">
@@ -35112,10 +35108,10 @@
         <v>622</v>
       </c>
       <c r="AA56" s="18" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="AB56" s="18" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC56" s="18" t="s">
         <v>384</v>
@@ -35175,7 +35171,7 @@
         <v>622</v>
       </c>
       <c r="AA57" s="18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AB57" s="18" t="s">
         <v>130</v>
@@ -35346,7 +35342,7 @@
         <v>516</v>
       </c>
       <c r="AA60" s="18" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AB60" s="18" t="s">
         <v>409</v>
@@ -35412,7 +35408,7 @@
         <v>408</v>
       </c>
       <c r="AB61" s="21" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC61" s="21" t="s">
         <v>675</v>
@@ -35472,10 +35468,10 @@
         <v>684</v>
       </c>
       <c r="AA62" s="18" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="AB62" s="18" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC62" s="18" t="s">
         <v>675</v>
@@ -35538,7 +35534,7 @@
         <v>408</v>
       </c>
       <c r="AB63" s="21" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC63" s="21" t="s">
         <v>384</v>
@@ -35601,7 +35597,7 @@
         <v>408</v>
       </c>
       <c r="AB64" s="23" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="AC64" s="23" t="s">
         <v>115</v>
@@ -35795,7 +35791,7 @@
         <v>408</v>
       </c>
       <c r="AB66" s="26" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="AC66" s="26" t="s">
         <v>728</v>
@@ -35890,10 +35886,10 @@
         <v>738</v>
       </c>
       <c r="AA67" s="26" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="AB67" s="26" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="AC67" s="26"/>
       <c r="AD67" s="26" t="s">
@@ -35985,7 +35981,7 @@
         <v>58</v>
       </c>
       <c r="Z68" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA68" s="26"/>
       <c r="AB68" s="26"/>
@@ -36171,7 +36167,9 @@
       <c r="Z70" s="26" t="s">
         <v>1018</v>
       </c>
-      <c r="AA70" s="26"/>
+      <c r="AA70" s="26" t="s">
+        <v>1290</v>
+      </c>
       <c r="AB70" s="26"/>
       <c r="AC70" s="26"/>
       <c r="AD70" s="26"/>
@@ -36200,7 +36198,7 @@
         <v>0</v>
       </c>
       <c r="FV70" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="71" spans="1:180" ht="153">
@@ -36311,13 +36309,13 @@
         <v>1</v>
       </c>
       <c r="FV71" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="FW71" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="FX71" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="72" spans="1:180" ht="119">
@@ -36381,16 +36379,16 @@
       <c r="Z72" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="AA72" s="39" t="s">
+      <c r="AA72" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AB72" s="39"/>
-      <c r="AC72" s="39"/>
-      <c r="AD72" s="39"/>
-      <c r="AE72" s="39"/>
-      <c r="AF72" s="39"/>
-      <c r="AG72" s="39"/>
-      <c r="AH72" s="39"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="42"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="42"/>
+      <c r="AG72" s="42"/>
+      <c r="AH72" s="42"/>
       <c r="AI72" s="26"/>
       <c r="AJ72" s="25"/>
       <c r="AK72">
@@ -36484,7 +36482,7 @@
         <v>408</v>
       </c>
       <c r="AB73" s="26" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="AC73" s="26" t="s">
         <v>813</v>
@@ -36710,7 +36708,7 @@
         <v>60</v>
       </c>
       <c r="AB75" s="26" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC75" s="26" t="s">
         <v>728</v>
@@ -36823,7 +36821,7 @@
         <v>408</v>
       </c>
       <c r="AB76" s="26" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC76" s="26" t="s">
         <v>728</v>
@@ -36933,10 +36931,10 @@
         <v>867</v>
       </c>
       <c r="AA77" s="26" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="AB77" s="26" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="AC77" s="26" t="s">
         <v>728</v>
@@ -37049,7 +37047,7 @@
         <v>408</v>
       </c>
       <c r="AB78" s="26" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC78" s="26" t="s">
         <v>728</v>
@@ -37158,9 +37156,11 @@
         <v>58</v>
       </c>
       <c r="Z79" s="26" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AA79" s="26"/>
+        <v>1051</v>
+      </c>
+      <c r="AA79" s="26" t="s">
+        <v>1458</v>
+      </c>
       <c r="AB79" s="26"/>
       <c r="AC79" s="26"/>
       <c r="AD79" s="26"/>
@@ -37182,11 +37182,11 @@
       </c>
       <c r="AM79">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN79">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV79">
         <v>2020</v>
@@ -37260,10 +37260,10 @@
         <v>904</v>
       </c>
       <c r="AA80" s="26" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="AB80" s="26" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AC80" s="26" t="s">
         <v>813</v>
@@ -37376,7 +37376,7 @@
         <v>408</v>
       </c>
       <c r="AB81" s="26" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="AC81" s="26" t="s">
         <v>728</v>
@@ -37467,16 +37467,16 @@
       <c r="Z82" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="AA82" s="39" t="s">
+      <c r="AA82" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AB82" s="39"/>
-      <c r="AC82" s="39"/>
-      <c r="AD82" s="39"/>
-      <c r="AE82" s="39"/>
-      <c r="AF82" s="39"/>
-      <c r="AG82" s="39"/>
-      <c r="AH82" s="39"/>
+      <c r="AB82" s="42"/>
+      <c r="AC82" s="42"/>
+      <c r="AD82" s="42"/>
+      <c r="AE82" s="42"/>
+      <c r="AF82" s="42"/>
+      <c r="AG82" s="42"/>
+      <c r="AH82" s="42"/>
       <c r="AI82" s="26"/>
       <c r="AJ82" s="25"/>
       <c r="AK82">
@@ -37647,7 +37647,7 @@
         <v>408</v>
       </c>
       <c r="AB84" s="26" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC84" s="26" t="s">
         <v>813</v>
@@ -37742,7 +37742,7 @@
         <v>408</v>
       </c>
       <c r="AB85" s="26" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC85" s="26" t="s">
         <v>946</v>
@@ -37824,16 +37824,16 @@
       <c r="Z86" s="26" t="s">
         <v>954</v>
       </c>
-      <c r="AA86" s="39" t="s">
+      <c r="AA86" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AB86" s="39"/>
-      <c r="AC86" s="39"/>
-      <c r="AD86" s="39"/>
-      <c r="AE86" s="39"/>
-      <c r="AF86" s="39"/>
-      <c r="AG86" s="39"/>
-      <c r="AH86" s="39"/>
+      <c r="AB86" s="42"/>
+      <c r="AC86" s="42"/>
+      <c r="AD86" s="42"/>
+      <c r="AE86" s="42"/>
+      <c r="AF86" s="42"/>
+      <c r="AG86" s="42"/>
+      <c r="AH86" s="42"/>
       <c r="AI86" s="26"/>
       <c r="AJ86" s="25"/>
       <c r="AK86">
@@ -37894,16 +37894,16 @@
       <c r="Z87" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="AA87" s="39" t="s">
+      <c r="AA87" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AB87" s="39"/>
-      <c r="AC87" s="39"/>
-      <c r="AD87" s="39"/>
-      <c r="AE87" s="39"/>
-      <c r="AF87" s="39"/>
-      <c r="AG87" s="39"/>
-      <c r="AH87" s="39"/>
+      <c r="AB87" s="42"/>
+      <c r="AC87" s="42"/>
+      <c r="AD87" s="42"/>
+      <c r="AE87" s="42"/>
+      <c r="AF87" s="42"/>
+      <c r="AG87" s="42"/>
+      <c r="AH87" s="42"/>
       <c r="AI87" s="26"/>
       <c r="AJ87" s="25"/>
       <c r="AK87">
@@ -37964,16 +37964,16 @@
       <c r="Z88" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="AA88" s="39" t="s">
+      <c r="AA88" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AB88" s="39"/>
-      <c r="AC88" s="39"/>
-      <c r="AD88" s="39"/>
-      <c r="AE88" s="39"/>
-      <c r="AF88" s="39"/>
-      <c r="AG88" s="39"/>
-      <c r="AH88" s="39"/>
+      <c r="AB88" s="42"/>
+      <c r="AC88" s="42"/>
+      <c r="AD88" s="42"/>
+      <c r="AE88" s="42"/>
+      <c r="AF88" s="42"/>
+      <c r="AG88" s="42"/>
+      <c r="AH88" s="42"/>
       <c r="AI88" s="26"/>
       <c r="AJ88" s="25"/>
       <c r="AK88">
@@ -38038,7 +38038,7 @@
         <v>966</v>
       </c>
       <c r="AB89" s="26" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC89" s="26" t="s">
         <v>728</v>
@@ -38121,7 +38121,7 @@
         <v>976</v>
       </c>
       <c r="AA90" s="26" t="s">
-        <v>966</v>
+        <v>1417</v>
       </c>
       <c r="AB90" s="26" t="s">
         <v>977</v>
@@ -38208,7 +38208,7 @@
         <v>90</v>
       </c>
       <c r="AB91" s="26" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="AC91" s="26" t="s">
         <v>728</v>
@@ -38292,7 +38292,7 @@
         <v>408</v>
       </c>
       <c r="AB92" s="26" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AC92" s="26" t="s">
         <v>728</v>
@@ -38372,16 +38372,16 @@
       <c r="Z93" s="26" t="s">
         <v>998</v>
       </c>
-      <c r="AA93" s="39" t="s">
+      <c r="AA93" s="42" t="s">
         <v>999</v>
       </c>
-      <c r="AB93" s="39"/>
-      <c r="AC93" s="39"/>
-      <c r="AD93" s="39"/>
-      <c r="AE93" s="39"/>
-      <c r="AF93" s="39"/>
-      <c r="AG93" s="39"/>
-      <c r="AH93" s="39"/>
+      <c r="AB93" s="42"/>
+      <c r="AC93" s="42"/>
+      <c r="AD93" s="42"/>
+      <c r="AE93" s="42"/>
+      <c r="AF93" s="42"/>
+      <c r="AG93" s="42"/>
+      <c r="AH93" s="42"/>
       <c r="AI93" s="26"/>
       <c r="AJ93" s="25"/>
       <c r="AK93">
@@ -38446,7 +38446,7 @@
         <v>129</v>
       </c>
       <c r="AB94" s="26" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="AC94" s="26" t="s">
         <v>813</v>
@@ -38526,16 +38526,16 @@
       <c r="Z95" s="26" t="s">
         <v>1013</v>
       </c>
-      <c r="AA95" s="39" t="s">
+      <c r="AA95" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AB95" s="39"/>
-      <c r="AC95" s="39"/>
-      <c r="AD95" s="39"/>
-      <c r="AE95" s="39"/>
-      <c r="AF95" s="39"/>
-      <c r="AG95" s="39"/>
-      <c r="AH95" s="39"/>
+      <c r="AB95" s="42"/>
+      <c r="AC95" s="42"/>
+      <c r="AD95" s="42"/>
+      <c r="AE95" s="42"/>
+      <c r="AF95" s="42"/>
+      <c r="AG95" s="42"/>
+      <c r="AH95" s="42"/>
       <c r="AI95" s="26"/>
       <c r="AJ95" s="25"/>
       <c r="AK95">
@@ -38599,10 +38599,10 @@
         <v>1018</v>
       </c>
       <c r="AA96" s="2" t="s">
-        <v>966</v>
+        <v>1417</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC96" s="2" t="s">
         <v>1019</v>
@@ -38683,25 +38683,25 @@
         <v>58</v>
       </c>
       <c r="Z97" s="2" t="s">
-        <v>1029</v>
+        <v>1051</v>
       </c>
       <c r="AA97" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC97" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AD97" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="AD97" s="2" t="s">
+      <c r="AE97" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="AE97" s="2" t="s">
+      <c r="AF97" s="2" t="s">
         <v>1032</v>
-      </c>
-      <c r="AF97" s="2" t="s">
-        <v>1033</v>
       </c>
       <c r="AG97" s="2" t="s">
         <v>66</v>
@@ -38720,7 +38720,7 @@
       </c>
       <c r="AM97">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN97">
         <f t="shared" si="11"/>
@@ -38733,13 +38733,13 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>1035</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>1036</v>
       </c>
       <c r="F98" s="2">
         <v>2021</v>
@@ -38748,7 +38748,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
@@ -38768,10 +38768,10 @@
         <v>77</v>
       </c>
       <c r="Z98" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AA98" s="30" t="s">
         <v>1038</v>
-      </c>
-      <c r="AA98" s="30" t="s">
-        <v>1039</v>
       </c>
       <c r="AB98" s="30"/>
       <c r="AC98" s="30"/>
@@ -38804,13 +38804,13 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>1042</v>
       </c>
       <c r="F99" s="2">
         <v>2013</v>
@@ -38819,7 +38819,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -38839,23 +38839,23 @@
         <v>58</v>
       </c>
       <c r="Z99" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AA99" s="2" t="s">
         <v>966</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="AC99" s="2"/>
       <c r="AD99" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AE99" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="AE99" s="2" t="s">
+      <c r="AF99" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="AF99" s="2" t="s">
-        <v>1047</v>
       </c>
       <c r="AG99" s="2" t="s">
         <v>66</v>
@@ -38887,13 +38887,13 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>1050</v>
       </c>
       <c r="F100" s="2">
         <v>2013</v>
@@ -38902,7 +38902,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -38922,34 +38922,34 @@
         <v>58</v>
       </c>
       <c r="Z100" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA100" s="2" t="s">
         <v>408</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC100" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AD100" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AE100" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="AE100" s="2" t="s">
+      <c r="AF100" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="AF100" s="2" t="s">
+      <c r="AG100" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="AG100" s="2" t="s">
+      <c r="AH100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="AH100" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI100" s="2" t="s">
-        <v>1057</v>
       </c>
       <c r="AK100">
         <f t="shared" si="12"/>
@@ -38974,13 +38974,13 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>1059</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>1060</v>
       </c>
       <c r="F101" s="2">
         <v>2018</v>
@@ -38989,7 +38989,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -39009,23 +39009,23 @@
         <v>58</v>
       </c>
       <c r="Z101" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA101" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AB101" s="2" t="s">
         <v>207</v>
       </c>
       <c r="AC101" s="2"/>
       <c r="AD101" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AE101" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AF101" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="AF101" s="2" t="s">
-        <v>1064</v>
       </c>
       <c r="AG101" s="2" t="s">
         <v>66</v>
@@ -39057,13 +39057,13 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>459</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F102" s="2">
         <v>2021</v>
@@ -39072,7 +39072,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -39092,32 +39092,32 @@
         <v>58</v>
       </c>
       <c r="Z102" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA102" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AB102" s="2" t="s">
         <v>1068</v>
-      </c>
-      <c r="AB102" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="AC102" s="2"/>
       <c r="AD102" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AE102" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="AE102" s="2" t="s">
+      <c r="AF102" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="AF102" s="2" t="s">
+      <c r="AG102" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="AG102" s="2" t="s">
+      <c r="AH102" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI102" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="AH102" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI102" s="2" t="s">
-        <v>1074</v>
       </c>
       <c r="AK102">
         <f t="shared" si="12"/>
@@ -39142,13 +39142,13 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>1076</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>1077</v>
       </c>
       <c r="F103" s="2">
         <v>2020</v>
@@ -39157,7 +39157,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -39177,23 +39177,23 @@
         <v>58</v>
       </c>
       <c r="Z103" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA103" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AB103" s="2" t="s">
         <v>207</v>
       </c>
       <c r="AC103" s="2"/>
       <c r="AD103" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AE103" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="AE103" s="2" t="s">
+      <c r="AF103" s="2" t="s">
         <v>1081</v>
-      </c>
-      <c r="AF103" s="2" t="s">
-        <v>1082</v>
       </c>
       <c r="AG103" s="2" t="s">
         <v>66</v>
@@ -39202,7 +39202,7 @@
         <v>1</v>
       </c>
       <c r="AI103" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AK103">
         <f t="shared" si="12"/>
@@ -39227,13 +39227,13 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>1085</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>1086</v>
       </c>
       <c r="F104" s="2">
         <v>2022</v>
@@ -39242,7 +39242,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
@@ -39262,32 +39262,32 @@
         <v>58</v>
       </c>
       <c r="Z104" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA104" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AB104" s="2" t="s">
         <v>207</v>
       </c>
       <c r="AC104" s="2"/>
       <c r="AD104" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AE104" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AF104" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="AF104" s="2" t="s">
+      <c r="AG104" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="AG104" s="2" t="s">
-        <v>1091</v>
-      </c>
       <c r="AH104" s="2">
         <v>1</v>
       </c>
       <c r="AI104" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AK104">
         <f t="shared" si="12"/>
@@ -39312,13 +39312,13 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>1093</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>1094</v>
       </c>
       <c r="F105" s="2">
         <v>2019</v>
@@ -39327,7 +39327,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -39347,26 +39347,26 @@
         <v>58</v>
       </c>
       <c r="Z105" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA105" s="2" t="s">
         <v>408</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC105" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AD105" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AE105" s="2"/>
       <c r="AF105" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AG105" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AH105" s="2">
         <v>0</v>
@@ -39395,13 +39395,13 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>1099</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>1100</v>
       </c>
       <c r="F106" s="2">
         <v>2020</v>
@@ -39410,7 +39410,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
@@ -39430,7 +39430,7 @@
         <v>58</v>
       </c>
       <c r="Z106" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA106" s="2" t="s">
         <v>408</v>
@@ -39440,13 +39440,13 @@
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AE106" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AF106" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="AF106" s="2" t="s">
-        <v>1103</v>
       </c>
       <c r="AG106" s="2" t="s">
         <v>66</v>
@@ -39478,10 +39478,10 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>1104</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>1105</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>846</v>
@@ -39493,7 +39493,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
@@ -39513,23 +39513,23 @@
         <v>58</v>
       </c>
       <c r="Z107" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA107" s="2" t="s">
         <v>408</v>
       </c>
       <c r="AB107" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AC107" s="2"/>
       <c r="AD107" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AE107" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AF107" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AG107" s="2" t="s">
         <v>66</v>
@@ -39561,13 +39561,13 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>1110</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="F108" s="2">
         <v>2018</v>
@@ -39576,7 +39576,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -39599,29 +39599,29 @@
         <v>1018</v>
       </c>
       <c r="AA108" s="2" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="AB108" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC108" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AD108" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="AD108" s="2" t="s">
+      <c r="AE108" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="AE108" s="2" t="s">
-        <v>1115</v>
       </c>
       <c r="AF108" s="2"/>
       <c r="AG108" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AH108" s="2">
         <v>0.5</v>
       </c>
       <c r="AI108" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AK108">
         <f t="shared" si="12"/>
@@ -39646,13 +39646,13 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>1120</v>
       </c>
       <c r="F109" s="2">
         <v>2021</v>
@@ -39661,7 +39661,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
@@ -39690,25 +39690,25 @@
         <v>207</v>
       </c>
       <c r="AC109" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AD109" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AE109" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="AE109" s="2" t="s">
+      <c r="AF109" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="AF109" s="2" t="s">
+      <c r="AG109" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="AG109" s="2" t="s">
+      <c r="AH109" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI109" s="2" t="s">
         <v>1125</v>
-      </c>
-      <c r="AH109" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI109" s="2" t="s">
-        <v>1126</v>
       </c>
       <c r="AK109">
         <f t="shared" si="12"/>
@@ -39733,13 +39733,13 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>1128</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>1129</v>
       </c>
       <c r="F110" s="2">
         <v>2016</v>
@@ -39748,7 +39748,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -39771,21 +39771,21 @@
         <v>1018</v>
       </c>
       <c r="AA110" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="AB110" s="2" t="s">
         <v>409</v>
       </c>
       <c r="AC110" s="2"/>
       <c r="AD110" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AE110" s="2" t="s">
         <v>1131</v>
-      </c>
-      <c r="AE110" s="2" t="s">
-        <v>1132</v>
       </c>
       <c r="AF110" s="2"/>
       <c r="AG110" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AH110" s="2">
         <v>0</v>
@@ -39814,13 +39814,13 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>1134</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>1135</v>
       </c>
       <c r="F111" s="2">
         <v>2017</v>
@@ -39829,7 +39829,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
@@ -39852,23 +39852,23 @@
         <v>1018</v>
       </c>
       <c r="AA111" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="AB111" s="2" t="s">
         <v>409</v>
       </c>
       <c r="AC111" s="2"/>
       <c r="AD111" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AE111" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="AE111" s="2" t="s">
+      <c r="AF111" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="AF111" s="2" t="s">
-        <v>1139</v>
-      </c>
       <c r="AG111" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AH111" s="2">
         <v>0</v>
@@ -39897,13 +39897,13 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="F112" s="2">
         <v>2018</v>
@@ -39912,7 +39912,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -39932,34 +39932,34 @@
         <v>58</v>
       </c>
       <c r="Z112" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA112" s="2" t="s">
         <v>408</v>
       </c>
       <c r="AB112" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC112" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AD112" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="AD112" s="2" t="s">
+      <c r="AE112" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="AE112" s="2" t="s">
+      <c r="AF112" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="AF112" s="2" t="s">
+      <c r="AG112" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="AG112" s="2" t="s">
+      <c r="AH112" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI112" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="AH112" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI112" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="AK112">
         <f t="shared" si="12"/>
@@ -39984,13 +39984,13 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>1151</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>1152</v>
       </c>
       <c r="F113" s="2">
         <v>2017</v>
@@ -39999,7 +39999,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
@@ -40019,10 +40019,10 @@
         <v>58</v>
       </c>
       <c r="Z113" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AA113" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AB113" s="2" t="s">
         <v>207</v>
@@ -40030,10 +40030,10 @@
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
       <c r="AE113" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AF113" s="2" t="s">
         <v>1155</v>
-      </c>
-      <c r="AF113" s="2" t="s">
-        <v>1156</v>
       </c>
       <c r="AG113" s="2" t="s">
         <v>717</v>
@@ -40065,13 +40065,13 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="F114" s="2">
         <v>2014</v>
@@ -40080,7 +40080,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -40100,26 +40100,26 @@
         <v>58</v>
       </c>
       <c r="Z114" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA114" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="AB114" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AC114" s="2"/>
       <c r="AD114" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AE114" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="AE114" s="2" t="s">
+      <c r="AF114" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="AF114" s="2" t="s">
+      <c r="AG114" s="2" t="s">
         <v>1163</v>
-      </c>
-      <c r="AG114" s="2" t="s">
-        <v>1164</v>
       </c>
       <c r="AH114" s="2">
         <v>0</v>
@@ -40148,13 +40148,13 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>1167</v>
       </c>
       <c r="F115" s="2">
         <v>2014</v>
@@ -40163,7 +40163,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -40183,32 +40183,32 @@
         <v>58</v>
       </c>
       <c r="Z115" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AA115" s="2" t="s">
         <v>1169</v>
-      </c>
-      <c r="AA115" s="2" t="s">
-        <v>1170</v>
       </c>
       <c r="AB115" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AC115" s="2"/>
       <c r="AD115" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AE115" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="AE115" s="2" t="s">
+      <c r="AF115" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="AF115" s="2" t="s">
+      <c r="AG115" s="2" t="s">
         <v>1173</v>
-      </c>
-      <c r="AG115" s="2" t="s">
-        <v>1174</v>
       </c>
       <c r="AH115" s="2">
         <v>0.5</v>
       </c>
       <c r="AI115" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AK115">
         <f t="shared" si="12"/>
@@ -40233,13 +40233,13 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>1177</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>1178</v>
       </c>
       <c r="F116" s="2">
         <v>2018</v>
@@ -40248,7 +40248,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -40268,21 +40268,21 @@
         <v>58</v>
       </c>
       <c r="Z116" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AA116" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AB116" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AC116" s="2"/>
       <c r="AD116" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AE116" s="2"/>
       <c r="AF116" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AG116" s="2" t="s">
         <v>66</v>
@@ -40291,7 +40291,7 @@
         <v>0</v>
       </c>
       <c r="AI116" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AK116">
         <f t="shared" si="12"/>
@@ -40316,13 +40316,13 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>1184</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>1185</v>
       </c>
       <c r="F117" s="2">
         <v>2023</v>
@@ -40331,7 +40331,7 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -40351,23 +40351,23 @@
         <v>58</v>
       </c>
       <c r="Z117" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA117" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AB117" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AC117" s="2"/>
       <c r="AD117" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AE117" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="AE117" s="2" t="s">
+      <c r="AF117" s="2" t="s">
         <v>1189</v>
-      </c>
-      <c r="AF117" s="2" t="s">
-        <v>1190</v>
       </c>
       <c r="AG117" s="2" t="s">
         <v>66</v>
@@ -40376,7 +40376,7 @@
         <v>1</v>
       </c>
       <c r="AI117" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AK117">
         <f t="shared" si="12"/>
@@ -40401,13 +40401,13 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>1193</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>1194</v>
       </c>
       <c r="F118" s="2">
         <v>2014</v>
@@ -40416,7 +40416,7 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -40436,23 +40436,23 @@
         <v>58</v>
       </c>
       <c r="Z118" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA118" s="2" t="s">
         <v>142</v>
       </c>
       <c r="AB118" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="AC118" s="2"/>
       <c r="AD118" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AE118" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AF118" s="2" t="s">
         <v>1196</v>
-      </c>
-      <c r="AF118" s="2" t="s">
-        <v>1197</v>
       </c>
       <c r="AG118" s="2" t="s">
         <v>66</v>
@@ -40461,7 +40461,7 @@
         <v>0</v>
       </c>
       <c r="AI118" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AK118">
         <f t="shared" si="12"/>
@@ -40486,13 +40486,13 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>1201</v>
       </c>
       <c r="F119" s="2">
         <v>2015</v>
@@ -40501,7 +40501,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -40521,7 +40521,7 @@
         <v>58</v>
       </c>
       <c r="Z119" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA119" s="2" t="s">
         <v>408</v>
@@ -40530,25 +40530,25 @@
         <v>207</v>
       </c>
       <c r="AC119" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AD119" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="AD119" s="2" t="s">
+      <c r="AE119" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="AE119" s="2" t="s">
+      <c r="AF119" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AG119" s="2" t="s">
         <v>1205</v>
-      </c>
-      <c r="AF119" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AG119" s="2" t="s">
-        <v>1206</v>
       </c>
       <c r="AH119" s="2">
         <v>0.5</v>
       </c>
       <c r="AI119" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AK119">
         <f t="shared" si="12"/>
@@ -40573,13 +40573,13 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>1209</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>1210</v>
       </c>
       <c r="F120" s="2">
         <v>2021</v>
@@ -40588,7 +40588,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
@@ -40608,32 +40608,32 @@
         <v>58</v>
       </c>
       <c r="Z120" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA120" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AB120" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AC120" s="2"/>
       <c r="AD120" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AE120" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="AE120" s="2" t="s">
+      <c r="AF120" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="AF120" s="2" t="s">
+      <c r="AG120" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="AG120" s="2" t="s">
+      <c r="AH120" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI120" s="2" t="s">
         <v>1216</v>
-      </c>
-      <c r="AH120" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI120" s="2" t="s">
-        <v>1217</v>
       </c>
       <c r="AK120">
         <f t="shared" si="12"/>
@@ -40658,13 +40658,13 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>1220</v>
       </c>
       <c r="F121" s="2">
         <v>2024</v>
@@ -40673,7 +40673,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -40693,32 +40693,32 @@
         <v>58</v>
       </c>
       <c r="Z121" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA121" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AB121" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AC121" s="2"/>
       <c r="AD121" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AE121" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="AE121" s="2" t="s">
+      <c r="AF121" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="AF121" s="2" t="s">
+      <c r="AG121" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="AG121" s="2" t="s">
+      <c r="AH121" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI121" s="2" t="s">
         <v>1226</v>
-      </c>
-      <c r="AH121" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI121" s="2" t="s">
-        <v>1227</v>
       </c>
       <c r="AK121">
         <f t="shared" si="12"/>
@@ -40743,13 +40743,13 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>1230</v>
       </c>
       <c r="F122" s="2">
         <v>2022</v>
@@ -40758,7 +40758,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
@@ -40778,32 +40778,32 @@
         <v>58</v>
       </c>
       <c r="Z122" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA122" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AB122" s="2" t="s">
         <v>409</v>
       </c>
       <c r="AC122" s="2"/>
       <c r="AD122" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AE122" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="AE122" s="2" t="s">
+      <c r="AF122" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AG122" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AH122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI122" s="2" t="s">
         <v>1234</v>
-      </c>
-      <c r="AF122" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AG122" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AH122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI122" s="2" t="s">
-        <v>1235</v>
       </c>
       <c r="AK122">
         <f t="shared" si="12"/>
@@ -40828,13 +40828,13 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>1237</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>1238</v>
       </c>
       <c r="F123" s="2">
         <v>2020</v>
@@ -40843,7 +40843,7 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -40866,23 +40866,23 @@
         <v>1018</v>
       </c>
       <c r="AA123" s="2" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="AB123" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AC123" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AD123" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AE123" s="2" t="s">
         <v>1240</v>
-      </c>
-      <c r="AE123" s="2" t="s">
-        <v>1241</v>
       </c>
       <c r="AF123" s="2"/>
       <c r="AG123" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AH123" s="2">
         <v>1</v>
@@ -40911,13 +40911,13 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>459</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F124" s="2">
         <v>2015</v>
@@ -40926,7 +40926,7 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
@@ -40946,7 +40946,7 @@
         <v>58</v>
       </c>
       <c r="Z124" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA124" s="2" t="s">
         <v>60</v>
@@ -40955,16 +40955,16 @@
         <v>91</v>
       </c>
       <c r="AC124" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AE124" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AF124" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AG124" s="2" t="s">
         <v>66</v>
@@ -40996,13 +40996,13 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>496</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F125" s="2">
         <v>2016</v>
@@ -41011,7 +41011,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
@@ -41031,20 +41031,20 @@
         <v>58</v>
       </c>
       <c r="Z125" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA125" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="AB125" s="2" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="AC125" s="2"/>
       <c r="AD125" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AE125" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AF125" s="2"/>
       <c r="AG125" s="2" t="s">
@@ -41054,7 +41054,7 @@
         <v>0.5</v>
       </c>
       <c r="AI125" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AK125">
         <f t="shared" si="12"/>
@@ -41079,13 +41079,13 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>459</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F126" s="2">
         <v>2022</v>
@@ -41094,7 +41094,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
@@ -41114,32 +41114,32 @@
         <v>58</v>
       </c>
       <c r="Z126" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA126" s="2" t="s">
         <v>408</v>
       </c>
       <c r="AB126" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AC126" s="2"/>
       <c r="AD126" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AE126" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AF126" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AG126" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="AF126" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AG126" s="2" t="s">
+      <c r="AH126" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI126" s="2" t="s">
         <v>1257</v>
-      </c>
-      <c r="AH126" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI126" s="2" t="s">
-        <v>1258</v>
       </c>
       <c r="AK126">
         <f t="shared" si="12"/>

--- a/7_Data_Extraction/Data_Extraction.xlsx
+++ b/7_Data_Extraction/Data_Extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3033116-3981-4C4F-9B7F-85D1FBABDDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB39F63-1168-7543-B5E2-BDC3C40BBBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="620" windowWidth="28800" windowHeight="15580" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15580" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -22705,8 +22705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA3DE9A-9DC8-9B4C-920E-613E1AA78E62}">
   <dimension ref="A1:HM126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z99" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z99" sqref="Z99"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BH2" sqref="BH2:BH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
